--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Map Data" sheetId="3" r:id="rId2"/>
-    <sheet name="lookup" sheetId="4" r:id="rId3"/>
-    <sheet name="Meta" sheetId="1" r:id="rId4"/>
-    <sheet name="FAQs" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Map Data" sheetId="3" r:id="rId3"/>
+    <sheet name="lookup" sheetId="4" r:id="rId4"/>
+    <sheet name="Meta" sheetId="1" r:id="rId5"/>
+    <sheet name="FAQs" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="547">
+  <si>
+    <t>value</t>
+  </si>
   <si>
     <t>Facts and Figures</t>
   </si>
@@ -1639,6 +1643,33 @@
   </si>
   <si>
     <t>FAQ Number</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>np</t>
+  </si>
+  <si>
+    <t>Damage Grade..</t>
+  </si>
+  <si>
+    <t>2432sdfas</t>
+  </si>
+  <si>
+    <t>facts and fitures</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title </t>
+  </si>
+  <si>
+    <t>facts and figures</t>
+  </si>
+  <si>
+    <t>damage 1 2</t>
   </si>
 </sst>
 </file>
@@ -2083,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DW16"/>
   <sheetViews>
-    <sheetView topLeftCell="CW1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="DR21" sqref="DR21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,7 +2739,7 @@
     </row>
     <row r="2" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -2716,7 +2747,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="21" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2736,7 +2767,7 @@
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
@@ -2753,11 +2784,11 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ2" s="21"/>
       <c r="AR2" s="21"/>
@@ -2790,7 +2821,7 @@
       <c r="BS2" s="21"/>
       <c r="BT2" s="21"/>
       <c r="BU2" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="BV2" s="21"/>
       <c r="BW2" s="21"/>
@@ -2798,7 +2829,7 @@
       <c r="BY2" s="21"/>
       <c r="BZ2" s="21"/>
       <c r="CA2" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CB2" s="21"/>
       <c r="CC2" s="21"/>
@@ -2820,7 +2851,7 @@
       <c r="CS2" s="21"/>
       <c r="CT2" s="21"/>
       <c r="CU2" s="21" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CV2" s="21"/>
       <c r="CW2" s="21"/>
@@ -2828,7 +2859,7 @@
       <c r="CY2" s="21"/>
       <c r="CZ2" s="21"/>
       <c r="DA2" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="DB2" s="21"/>
       <c r="DC2" s="21"/>
@@ -2840,7 +2871,7 @@
       <c r="DI2" s="21"/>
       <c r="DJ2" s="21"/>
       <c r="DK2" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="DL2" s="21"/>
       <c r="DM2" s="21"/>
@@ -2848,10 +2879,10 @@
       <c r="DO2" s="21"/>
       <c r="DP2" s="21"/>
       <c r="DQ2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="DR2" s="21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="DS2" s="21"/>
       <c r="DT2" s="21"/>
@@ -2861,385 +2892,385 @@
     </row>
     <row r="3" spans="1:127" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="F3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BP3" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="BQ3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BV3" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BY3" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BZ3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CA3" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CB3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="DS3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CC3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CE3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="CF3" s="3" t="s">
+      <c r="DT3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="DV3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="CG3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="DW3" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:127" x14ac:dyDescent="0.2">
@@ -3247,10 +3278,10 @@
         <v>24001</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>164</v>
       </c>
       <c r="D4" s="6">
         <v>4855</v>
@@ -3263,7 +3294,7 @@
         <v>12045</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>0.12909921129099211</v>
@@ -3272,7 +3303,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7">
         <v>0.29522623495226236</v>
@@ -3281,7 +3312,7 @@
         <v>0.69</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N4" s="7">
         <v>0.22814445828144458</v>
@@ -3290,7 +3321,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7">
         <v>6.2266500622665004E-3</v>
@@ -3299,7 +3330,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T4" s="7">
         <v>0.1672063096720631</v>
@@ -3308,7 +3339,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W4" s="7">
         <v>0.17409713574097135</v>
@@ -3358,10 +3389,10 @@
         <v>25</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AP4" s="9">
         <v>15839.6535767353</v>
@@ -3407,11 +3438,11 @@
       <c r="BO4" s="6"/>
       <c r="BP4" s="6"/>
       <c r="BQ4" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR4" s="10"/>
       <c r="BS4" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT4" s="10"/>
       <c r="BU4" s="6"/>
@@ -3421,61 +3452,61 @@
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
       <c r="CA4" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB4" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="CC4" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD4" s="6">
         <v>9851056975</v>
       </c>
       <c r="CE4" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF4" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CG4" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH4" s="11">
         <v>9860936366</v>
       </c>
       <c r="CI4" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ4" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="CK4" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL4" s="6">
         <v>9851049487</v>
       </c>
       <c r="CM4" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN4" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO4" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP4" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ4" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR4" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS4" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT4" s="6">
         <v>9851090449</v>
@@ -3531,10 +3562,10 @@
         <v>24002</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6">
         <v>738</v>
@@ -3547,7 +3578,7 @@
         <v>4663</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>8.5781685610122243E-4</v>
@@ -3556,7 +3587,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7">
         <v>0.89127171348917011</v>
@@ -3565,7 +3596,7 @@
         <v>0.69</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N5" s="7">
         <v>4.2890842805061117E-3</v>
@@ -3574,7 +3605,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7">
         <v>6.4336264207591682E-4</v>
@@ -3583,7 +3614,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T5" s="7">
         <v>2.3589963542783618E-3</v>
@@ -3592,7 +3623,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W5" s="7">
         <v>0.10057902637786832</v>
@@ -3642,10 +3673,10 @@
         <v>4</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AP5" s="9">
         <v>9227.1275362318847</v>
@@ -3691,13 +3722,13 @@
       <c r="BO5" s="6"/>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR5" s="6">
         <v>1500</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT5" s="6">
         <v>800</v>
@@ -3709,61 +3740,61 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB5" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="CC5" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD5" s="6">
         <v>9851099511</v>
       </c>
       <c r="CE5" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF5" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="CG5" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH5" s="11">
         <v>9841447532</v>
       </c>
       <c r="CI5" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ5" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="CK5" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL5" s="6">
         <v>9851154211</v>
       </c>
       <c r="CM5" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN5" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO5" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP5" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ5" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR5" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS5" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT5" s="6">
         <v>9851090449</v>
@@ -3818,9 +3849,7 @@
         <f t="shared" ref="DP5:DP16" si="5">DN5-DO5</f>
         <v>378</v>
       </c>
-      <c r="DQ5" s="6">
-        <v>1234</v>
-      </c>
+      <c r="DQ5" s="6"/>
       <c r="DR5" s="6"/>
       <c r="DS5" s="6"/>
       <c r="DT5" s="6"/>
@@ -3833,10 +3862,10 @@
         <v>24003</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6">
         <v>254</v>
@@ -3849,7 +3878,7 @@
         <v>6151</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>8.128759551292473E-4</v>
@@ -3858,7 +3887,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7">
         <v>0.97008616485124366</v>
@@ -3867,7 +3896,7 @@
         <v>0.69</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N6" s="7">
         <v>1.2680864900016258E-2</v>
@@ -3876,7 +3905,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6" s="7">
         <v>6.5030076410339777E-4</v>
@@ -3885,7 +3914,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T6" s="7">
         <v>1.0079661843602667E-2</v>
@@ -3894,7 +3923,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W6" s="7">
         <v>5.6901316859047308E-3</v>
@@ -3940,16 +3969,16 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP6" s="14">
         <v>19712.657664233579</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR6" s="15">
         <v>3000</v>
@@ -3958,7 +3987,7 @@
         <v>29797.94854014599</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU6" s="15">
         <v>5000</v>
@@ -3982,7 +4011,7 @@
         <v>98363</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG6" s="15">
         <v>1100</v>
@@ -3991,7 +4020,7 @@
         <v>3896008.3941605845</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BJ6" s="15">
         <v>100</v>
@@ -4007,13 +4036,13 @@
       <c r="BO6" s="6"/>
       <c r="BP6" s="6"/>
       <c r="BQ6" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR6" s="15">
         <v>1200</v>
       </c>
       <c r="BS6" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT6" s="15">
         <v>1000</v>
@@ -4025,61 +4054,61 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
       <c r="CA6" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB6" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="CC6" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD6" s="6">
         <v>9851084008</v>
       </c>
       <c r="CE6" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF6" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="CG6" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH6" s="11">
         <v>9841648772</v>
       </c>
       <c r="CI6" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ6" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="CK6" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL6" s="6">
         <v>9841831427</v>
       </c>
       <c r="CM6" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN6" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO6" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP6" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ6" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR6" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS6" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT6" s="6">
         <v>9851090449</v>
@@ -4143,10 +4172,10 @@
         <v>24004</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6">
         <v>654</v>
@@ -4159,7 +4188,7 @@
         <v>6135</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>1.6299918500407498E-4</v>
@@ -4168,7 +4197,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7">
         <v>0.9791361043194784</v>
@@ -4177,7 +4206,7 @@
         <v>0.69</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N7" s="7">
         <v>4.8899755501222489E-4</v>
@@ -4186,7 +4215,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7">
         <v>1.3039934800325999E-3</v>
@@ -4195,7 +4224,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T7" s="7">
         <v>9.7799511002444979E-4</v>
@@ -4204,7 +4233,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W7" s="7">
         <v>1.7929910350448247E-2</v>
@@ -4250,10 +4279,10 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO7" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AP7" s="14">
         <v>11003.716981132075</v>
@@ -4284,7 +4313,7 @@
         <v>61968</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG7" s="6"/>
       <c r="BH7" s="14">
@@ -4303,13 +4332,13 @@
       <c r="BO7" s="6"/>
       <c r="BP7" s="6"/>
       <c r="BQ7" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR7" s="15">
         <v>1200</v>
       </c>
       <c r="BS7" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT7" s="15">
         <v>1000</v>
@@ -4321,61 +4350,61 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB7" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="CC7" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD7" s="6">
         <v>9751003030</v>
       </c>
       <c r="CE7" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF7" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="CG7" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH7" s="11">
         <v>9865051558</v>
       </c>
       <c r="CI7" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ7" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CK7" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL7" s="6">
         <v>9861965095</v>
       </c>
       <c r="CM7" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN7" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO7" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP7" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ7" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR7" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS7" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT7" s="6">
         <v>9851090449</v>
@@ -4443,10 +4472,10 @@
         <v>24005</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6">
         <v>2094</v>
@@ -4459,7 +4488,7 @@
         <v>7881</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>6.4078162669711961E-2</v>
@@ -4468,7 +4497,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7">
         <v>0.38205811445248067</v>
@@ -4477,7 +4506,7 @@
         <v>0.69</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N8" s="7">
         <v>8.4760817155183354E-2</v>
@@ -4486,7 +4515,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7">
         <v>3.6797360741022715E-3</v>
@@ -4495,7 +4524,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T8" s="7">
         <v>9.6561350082476849E-2</v>
@@ -4504,7 +4533,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W8" s="7">
         <v>0.36886181956604491</v>
@@ -4555,7 +4584,7 @@
       </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AP8" s="9">
         <v>14998.497358490564</v>
@@ -4601,13 +4630,13 @@
       <c r="BO8" s="6"/>
       <c r="BP8" s="6"/>
       <c r="BQ8" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR8" s="6">
         <v>1200</v>
       </c>
       <c r="BS8" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT8" s="6">
         <v>800</v>
@@ -4619,61 +4648,61 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
       <c r="CA8" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB8" s="6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CC8" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD8" s="6">
         <v>9851073175</v>
       </c>
       <c r="CE8" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF8" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="CG8" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH8" s="6">
         <v>9841578064</v>
       </c>
       <c r="CI8" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ8" s="6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="CK8" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL8" s="6">
         <v>9851066871</v>
       </c>
       <c r="CM8" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN8" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO8" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP8" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ8" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR8" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS8" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT8" s="6">
         <v>9851090449</v>
@@ -4727,10 +4756,10 @@
         <v>24006</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6">
         <v>315</v>
@@ -4743,7 +4772,7 @@
         <v>2746</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4752,7 +4781,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K9" s="7">
         <v>0.84887108521485799</v>
@@ -4761,7 +4790,7 @@
         <v>0.69</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4770,7 +4799,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9" s="7">
         <v>4.3699927166788053E-3</v>
@@ -4779,7 +4808,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -4788,7 +4817,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W9" s="7">
         <v>0.14675892206846322</v>
@@ -4834,16 +4863,16 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AP9" s="14">
         <v>2253.8461538461538</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR9" s="15">
         <v>2000</v>
@@ -4852,7 +4881,7 @@
         <v>2253.8461538461538</v>
       </c>
       <c r="AT9" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AU9" s="15">
         <v>10000</v>
@@ -4876,7 +4905,7 @@
         <v>40231</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG9" s="15">
         <v>1000</v>
@@ -4897,11 +4926,11 @@
       <c r="BO9" s="6"/>
       <c r="BP9" s="6"/>
       <c r="BQ9" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR9" s="15"/>
       <c r="BS9" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT9" s="15"/>
       <c r="BU9" s="6"/>
@@ -4911,61 +4940,61 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="6"/>
       <c r="CA9" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB9" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="CC9" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD9" s="6">
         <v>9741277731</v>
       </c>
       <c r="CE9" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF9" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="CG9" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH9" s="11">
         <v>9621198697</v>
       </c>
       <c r="CI9" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ9" s="6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="CK9" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL9" s="6">
         <v>9841400343</v>
       </c>
       <c r="CM9" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN9" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO9" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP9" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ9" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR9" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS9" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT9" s="6">
         <v>9851090449</v>
@@ -5019,10 +5048,10 @@
         <v>24007</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6">
         <v>643</v>
@@ -5035,7 +5064,7 @@
         <v>3504</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H10" s="7">
         <v>2.8538812785388126E-4</v>
@@ -5044,7 +5073,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7">
         <v>0.94035388127853881</v>
@@ -5053,7 +5082,7 @@
         <v>0.69</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N10" s="7">
         <v>2.8538812785388126E-4</v>
@@ -5062,7 +5091,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -5071,7 +5100,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T10" s="7">
         <v>0</v>
@@ -5080,7 +5109,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W10" s="7">
         <v>5.9075342465753425E-2</v>
@@ -5126,16 +5155,16 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP10" s="14">
         <v>1968.3028248587573</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR10" s="15">
         <v>4000</v>
@@ -5144,7 +5173,7 @@
         <v>2060.3457627118646</v>
       </c>
       <c r="AT10" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AU10" s="15">
         <v>7000</v>
@@ -5168,7 +5197,7 @@
         <v>51653</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG10" s="15">
         <v>1000</v>
@@ -5177,7 +5206,7 @@
         <v>285932.20338983054</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BJ10" s="15">
         <v>110</v>
@@ -5193,13 +5222,13 @@
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
       <c r="BQ10" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR10" s="15">
         <v>1000</v>
       </c>
       <c r="BS10" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT10" s="15">
         <v>700</v>
@@ -5211,61 +5240,61 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB10" s="6" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="CC10" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD10" s="6">
         <v>9751009710</v>
       </c>
       <c r="CE10" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF10" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CG10" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH10" s="18">
         <v>9621105710</v>
       </c>
       <c r="CI10" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ10" s="6" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="CK10" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL10" s="6">
         <v>9851227723</v>
       </c>
       <c r="CM10" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN10" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO10" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP10" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ10" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR10" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS10" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT10" s="6">
         <v>9851090449</v>
@@ -5341,10 +5370,10 @@
         <v>24008</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6">
         <v>967</v>
@@ -5357,7 +5386,7 @@
         <v>9735</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>1.6743708269131997E-2</v>
@@ -5366,7 +5395,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7">
         <v>0.87231638418079094</v>
@@ -5375,7 +5404,7 @@
         <v>0.69</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N11" s="7">
         <v>2.1982537236774524E-2</v>
@@ -5384,7 +5413,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q11" s="7">
         <v>3.0816640986132513E-3</v>
@@ -5393,7 +5422,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T11" s="7">
         <v>3.2768361581920903E-2</v>
@@ -5402,7 +5431,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W11" s="7">
         <v>5.3107344632768359E-2</v>
@@ -5452,10 +5481,10 @@
         <v>19</v>
       </c>
       <c r="AN11" s="6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO11" s="6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AP11" s="9">
         <v>21440.41236093943</v>
@@ -5501,11 +5530,11 @@
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
       <c r="BQ11" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR11" s="15"/>
       <c r="BS11" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT11" s="15"/>
       <c r="BU11" s="6"/>
@@ -5515,61 +5544,61 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="6"/>
       <c r="CA11" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB11" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CC11" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD11" s="6">
         <v>9851199918</v>
       </c>
       <c r="CE11" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF11" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="CG11" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH11" s="11">
         <v>9843445819</v>
       </c>
       <c r="CI11" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ11" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="CK11" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL11" s="6">
         <v>9851243560</v>
       </c>
       <c r="CM11" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN11" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO11" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP11" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ11" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR11" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS11" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT11" s="6">
         <v>9851090449</v>
@@ -5623,10 +5652,10 @@
         <v>24009</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6">
         <v>1209</v>
@@ -5639,7 +5668,7 @@
         <v>8273</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H12" s="7">
         <v>1.5834642813973166E-2</v>
@@ -5648,7 +5677,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K12" s="7">
         <v>0.72670131753898226</v>
@@ -5657,7 +5686,7 @@
         <v>0.69</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N12" s="7">
         <v>1.7526894717756557E-2</v>
@@ -5666,7 +5695,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12" s="7">
         <v>1.0878762238607518E-3</v>
@@ -5675,7 +5704,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T12" s="7">
         <v>1.7406019581772028E-2</v>
@@ -5684,7 +5713,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W12" s="7">
         <v>0.22144324912365526</v>
@@ -5735,13 +5764,13 @@
       </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AP12" s="9">
         <v>9692.1434094903343</v>
       </c>
       <c r="AQ12" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AR12" s="6">
         <v>13200</v>
@@ -5770,7 +5799,7 @@
         <v>52040</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BG12" s="15">
         <v>930</v>
@@ -5779,7 +5808,7 @@
         <v>2192163.7961335676</v>
       </c>
       <c r="BI12" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BJ12" s="15">
         <v>240</v>
@@ -5795,13 +5824,13 @@
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
       <c r="BQ12" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR12" s="15">
         <v>1500</v>
       </c>
       <c r="BS12" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT12" s="15">
         <v>950</v>
@@ -5813,61 +5842,61 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="6"/>
       <c r="CA12" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB12" s="6" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="CC12" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD12" s="6">
         <v>9851149160</v>
       </c>
       <c r="CE12" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF12" s="6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="CG12" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH12" s="11">
         <v>9851154222</v>
       </c>
       <c r="CI12" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ12" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="CK12" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL12" s="6">
         <v>9841912151</v>
       </c>
       <c r="CM12" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN12" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO12" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP12" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ12" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR12" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS12" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT12" s="6">
         <v>9851090449</v>
@@ -5935,10 +5964,10 @@
         <v>24010</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6">
         <v>3435</v>
@@ -5951,7 +5980,7 @@
         <v>12285</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>0.10085470085470086</v>
@@ -5960,7 +5989,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K13" s="7">
         <v>0.42116402116402119</v>
@@ -5969,7 +5998,7 @@
         <v>0.69</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" s="7">
         <v>0.12153032153032153</v>
@@ -5978,7 +6007,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13" s="7">
         <v>4.6398046398046398E-3</v>
@@ -5987,7 +6016,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T13" s="7">
         <v>6.7480667480667486E-2</v>
@@ -5996,7 +6025,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W13" s="7">
         <v>0.28433048433048436</v>
@@ -6046,16 +6075,16 @@
         <v>7</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO13" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP13" s="14">
         <v>26137.510319708621</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR13" s="15">
         <v>5500</v>
@@ -6064,7 +6093,7 @@
         <v>53287.418454067178</v>
       </c>
       <c r="AT13" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AU13" s="15">
         <v>9000</v>
@@ -6088,7 +6117,7 @@
         <v>100424</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BG13" s="15">
         <v>1100</v>
@@ -6097,7 +6126,7 @@
         <v>6718033.9943342768</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="BJ13" s="15">
         <v>96</v>
@@ -6113,13 +6142,13 @@
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
       <c r="BQ13" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR13" s="15">
         <v>1200</v>
       </c>
       <c r="BS13" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT13" s="15">
         <v>1000</v>
@@ -6131,61 +6160,61 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
       <c r="CA13" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB13" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="CC13" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD13" s="6">
         <v>9851169272</v>
       </c>
       <c r="CE13" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF13" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="CG13" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH13" s="11">
         <v>9841543139</v>
       </c>
       <c r="CI13" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ13" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="CK13" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL13" s="6">
         <v>9851195271</v>
       </c>
       <c r="CM13" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN13" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO13" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP13" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ13" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR13" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS13" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT13" s="6">
         <v>9851090449</v>
@@ -6267,10 +6296,10 @@
         <v>24011</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6">
         <v>1721</v>
@@ -6283,7 +6312,7 @@
         <v>10999</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
         <v>2.818438039821802E-2</v>
@@ -6292,7 +6321,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7">
         <v>0.57496136012364762</v>
@@ -6301,7 +6330,7 @@
         <v>0.69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" s="7">
         <v>4.1185562323847624E-2</v>
@@ -6310,7 +6339,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7">
         <v>2.6366033275752342E-3</v>
@@ -6319,7 +6348,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T14" s="7">
         <v>3.4184925902354758E-2</v>
@@ -6328,7 +6357,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W14" s="7">
         <v>0.31884716792435674</v>
@@ -6379,7 +6408,7 @@
       </c>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AP14" s="9">
         <v>14803.184000000001</v>
@@ -6425,13 +6454,13 @@
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
       <c r="BQ14" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR14" s="6">
         <v>1400</v>
       </c>
       <c r="BS14" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT14" s="6">
         <v>800</v>
@@ -6443,61 +6472,61 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="6"/>
       <c r="CA14" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB14" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="CC14" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD14" s="6">
         <v>9843041788</v>
       </c>
       <c r="CE14" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF14" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="CG14" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH14" s="11">
         <v>9841670594</v>
       </c>
       <c r="CI14" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ14" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="CK14" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL14" s="6">
         <v>9851250031</v>
       </c>
       <c r="CM14" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN14" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO14" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP14" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ14" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR14" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS14" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT14" s="6">
         <v>9851090449</v>
@@ -6524,7 +6553,7 @@
       <c r="DH14" s="6"/>
       <c r="DI14" s="6"/>
       <c r="DJ14" s="6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="DK14" s="12">
         <v>626</v>
@@ -6559,10 +6588,10 @@
         <v>24012</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6">
         <v>1539</v>
@@ -6575,7 +6604,7 @@
         <v>7401</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" s="7">
         <v>1.3511687609782462E-3</v>
@@ -6584,7 +6613,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K15" s="7">
         <v>0.96662613160383737</v>
@@ -6593,7 +6622,7 @@
         <v>0.69</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N15" s="7">
         <v>2.837454398054317E-3</v>
@@ -6602,7 +6631,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15" s="7">
         <v>1.8916362653695446E-3</v>
@@ -6611,7 +6640,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T15" s="7">
         <v>2.7023375219564923E-3</v>
@@ -6620,7 +6649,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W15" s="7">
         <v>2.4591271449804081E-2</v>
@@ -6667,7 +6696,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP15" s="9">
         <v>12284.669918699188</v>
@@ -6713,11 +6742,11 @@
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
       <c r="BQ15" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR15" s="6"/>
       <c r="BS15" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
@@ -6727,61 +6756,61 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
       <c r="CA15" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB15" s="6" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CC15" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD15" s="6">
         <v>9851023673</v>
       </c>
       <c r="CE15" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF15" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CG15" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH15" s="11">
         <v>9841005964</v>
       </c>
       <c r="CI15" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ15" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="CK15" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL15" s="6">
         <v>9841344795</v>
       </c>
       <c r="CM15" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN15" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO15" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP15" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ15" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR15" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS15" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT15" s="6">
         <v>9851090449</v>
@@ -6835,10 +6864,10 @@
         <v>24013</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D16" s="6">
         <v>1632</v>
@@ -6851,7 +6880,7 @@
         <v>6201</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>9.6758587324625057E-4</v>
@@ -6860,7 +6889,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7">
         <v>0.99193678438961452</v>
@@ -6869,7 +6898,7 @@
         <v>0.69</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N16" s="7">
         <v>4.8379293662312528E-4</v>
@@ -6878,7 +6907,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="7">
         <v>1.6126431220770843E-3</v>
@@ -6887,7 +6916,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="T16" s="7">
         <v>1.1288501854539591E-3</v>
@@ -6896,7 +6925,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="W16" s="7">
         <v>3.8703434929850023E-3</v>
@@ -6943,7 +6972,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP16" s="9">
         <v>10073.668141592922</v>
@@ -6989,13 +7018,13 @@
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
       <c r="BQ16" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="BR16" s="6">
         <v>1500</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BT16" s="6">
         <v>1000</v>
@@ -7007,61 +7036,61 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="6"/>
       <c r="CA16" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CB16" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="CC16" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="CD16" s="6">
         <v>9851083953</v>
       </c>
       <c r="CE16" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CF16" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="CG16" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="CH16" s="11">
         <v>9849482709</v>
       </c>
       <c r="CI16" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="CJ16" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="CK16" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="CL16" s="6">
         <v>9841700755</v>
       </c>
       <c r="CM16" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="CN16" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="CO16" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="CP16" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ16" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="CR16" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="CS16" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="CT16" s="6">
         <v>9851090449</v>
@@ -7140,6 +7169,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7298,115 +7386,115 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -7929,7 +8017,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
@@ -7947,27 +8035,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("",(LOWER(SUBSTITUTE(C2," ","_"))))</f>
@@ -7976,13 +8064,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">CONCATENATE("",(LOWER(SUBSTITUTE(C3," ","_"))))</f>
@@ -7991,13 +8079,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -8006,13 +8094,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -8021,13 +8109,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -8036,13 +8124,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -8051,265 +8139,265 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C17" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C18" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C20" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C22" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C23" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B24" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C24" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C25" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -8318,13 +8406,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -8333,13 +8421,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B28" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -8348,13 +8436,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -8363,13 +8451,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B30" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -8378,13 +8466,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B31" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -8393,13 +8481,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B32" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -8408,13 +8496,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B33" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -8423,13 +8511,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B34" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -8438,13 +8526,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -8453,13 +8541,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -8468,13 +8556,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -8483,13 +8571,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -8498,13 +8586,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B39" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -8513,13 +8601,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -8528,13 +8616,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -8543,13 +8631,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C42" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -8558,13 +8646,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C43" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -8573,13 +8661,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -8588,13 +8676,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -8603,13 +8691,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -8618,13 +8706,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B47" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -8633,13 +8721,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B48" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C48" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -8648,13 +8736,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B49" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -8663,13 +8751,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -8678,13 +8766,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B51" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -8693,13 +8781,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B52" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -8708,13 +8796,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B53" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -8723,13 +8811,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B54" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -8738,13 +8826,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B55" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -8753,13 +8841,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B56" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -8768,13 +8856,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -8783,13 +8871,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C58" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -8798,13 +8886,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B59" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C59" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -8813,13 +8901,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B60" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C60" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -8828,13 +8916,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B61" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -8843,13 +8931,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B62" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -8858,13 +8946,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -8873,13 +8961,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B64" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C64" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -8888,13 +8976,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C65" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -8903,13 +8991,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B66" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -8918,13 +9006,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D128" si="1">CONCATENATE("",(LOWER(SUBSTITUTE(C67," ","_"))))</f>
@@ -8933,13 +9021,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B68" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C68" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -8948,13 +9036,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -8963,13 +9051,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B70" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C70" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -8978,13 +9066,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -8993,13 +9081,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -9008,13 +9096,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -9023,13 +9111,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -9038,13 +9126,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -9053,13 +9141,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -9068,13 +9156,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -9083,13 +9171,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -9098,13 +9186,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -9113,13 +9201,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -9128,13 +9216,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -9143,13 +9231,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -9158,13 +9246,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B83" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -9173,13 +9261,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B84" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -9188,13 +9276,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B85" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -9203,13 +9291,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -9218,13 +9306,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B87" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -9233,13 +9321,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B88" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -9248,13 +9336,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B89" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
@@ -9263,13 +9351,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -9278,13 +9366,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B91" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -9293,13 +9381,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B92" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -9308,13 +9396,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B93" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -9323,13 +9411,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B94" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -9338,13 +9426,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -9353,13 +9441,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B96" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -9368,13 +9456,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B97" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -9383,13 +9471,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B98" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -9398,13 +9486,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -9413,13 +9501,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C100" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -9428,13 +9516,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C101" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -9443,13 +9531,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C102" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -9458,13 +9546,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B103" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C103" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -9473,13 +9561,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C104" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -9488,13 +9576,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -9503,13 +9591,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B106" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C106" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -9518,13 +9606,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B107" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -9533,13 +9621,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B108" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C108" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -9548,13 +9636,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B109" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C109" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -9563,13 +9651,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B110" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C110" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -9578,13 +9666,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B111" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -9593,13 +9681,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B112" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C112" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -9608,13 +9696,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B113" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -9623,13 +9711,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B114" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -9638,13 +9726,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B115" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C115" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -9653,13 +9741,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B116" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C116" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -9668,13 +9756,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -9683,13 +9771,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B118" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C118" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -9698,13 +9786,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B119" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C119" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -9713,13 +9801,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C120" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -9728,13 +9816,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B121" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C121" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -9743,13 +9831,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C122" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -9758,13 +9846,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B123" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C123" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -9773,13 +9861,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B124" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C124" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -9788,13 +9876,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B125" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C125" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -9803,13 +9891,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B126" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C126" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -9818,13 +9906,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B127" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C127" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -9833,13 +9921,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B128" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C128" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -9852,12 +9940,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9867,24 +9955,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -9892,15 +9980,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -9911,11 +9999,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9924,24 +10014,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9949,10 +10039,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9960,10 +10050,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9971,10 +10061,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C5" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -13,12 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
+    <sheet name="Titles" sheetId="6" r:id="rId2"/>
     <sheet name="Map Data" sheetId="3" r:id="rId3"/>
     <sheet name="lookup" sheetId="4" r:id="rId4"/>
     <sheet name="Meta" sheetId="1" r:id="rId5"/>
     <sheet name="FAQs" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Titles!$A$1:$J$111</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -29,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="547">
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1416" uniqueCount="824">
   <si>
     <t>Facts and Figures</t>
   </si>
@@ -1645,31 +1645,865 @@
     <t>FAQ Number</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>np</t>
-  </si>
-  <si>
-    <t>Damage Grade..</t>
-  </si>
-  <si>
-    <t>2432sdfas</t>
-  </si>
-  <si>
-    <t>facts and fitures</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title </t>
-  </si>
-  <si>
-    <t>facts and figures</t>
-  </si>
-  <si>
-    <t>damage 1 2</t>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Nepali</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Palika Profile</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Damage Grade (1-2)</t>
+  </si>
+  <si>
+    <t>Damage Grade (3-5)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Typologies</t>
+  </si>
+  <si>
+    <t>Typology</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Recon &amp; Retrofit</t>
+  </si>
+  <si>
+    <t>Reconstruction Status</t>
+  </si>
+  <si>
+    <t>Retrofitting Status</t>
+  </si>
+  <si>
+    <t>Total Eligible HHs</t>
+  </si>
+  <si>
+    <t>PA Agreement</t>
+  </si>
+  <si>
+    <t>Ist Tranche received</t>
+  </si>
+  <si>
+    <t>IInd Tranche received</t>
+  </si>
+  <si>
+    <t>IIIrd Tranche received</t>
+  </si>
+  <si>
+    <t>Houses</t>
+  </si>
+  <si>
+    <t>Under Construction</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Reconstruction Status Title</t>
+  </si>
+  <si>
+    <t>Retrofitting Status Title</t>
+  </si>
+  <si>
+    <t>Houses Title</t>
+  </si>
+  <si>
+    <t>Total Eligible HHs (both)</t>
+  </si>
+  <si>
+    <t>PA Agreement (both)</t>
+  </si>
+  <si>
+    <t>Ist Tranche received (both)</t>
+  </si>
+  <si>
+    <t>IInd Tranche received (both)</t>
+  </si>
+  <si>
+    <t>Grievances Title</t>
+  </si>
+  <si>
+    <t>Grievances</t>
+  </si>
+  <si>
+    <t>Non-compliances Title</t>
+  </si>
+  <si>
+    <t>Registered (both)</t>
+  </si>
+  <si>
+    <t>Addressed (both)</t>
+  </si>
+  <si>
+    <t>Registered</t>
+  </si>
+  <si>
+    <t>Addressed</t>
+  </si>
+  <si>
+    <t>POs Presence Title</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Phased Out</t>
+  </si>
+  <si>
+    <t>Status of CM</t>
+  </si>
+  <si>
+    <t>Panel Title</t>
+  </si>
+  <si>
+    <t>Materials Header</t>
+  </si>
+  <si>
+    <t>Unit Header</t>
+  </si>
+  <si>
+    <t>Req. Quantity* Header</t>
+  </si>
+  <si>
+    <t>Ava. Header</t>
+  </si>
+  <si>
+    <t>Cost (NRs.)** Header</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Req. Quantity*</t>
+  </si>
+  <si>
+    <t>Ava.</t>
+  </si>
+  <si>
+    <t>Cost (NRs.)**</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>Sand</t>
+  </si>
+  <si>
+    <t>Timber</t>
+  </si>
+  <si>
+    <t>Cement (PPC)</t>
+  </si>
+  <si>
+    <t>Cement (OPC)</t>
+  </si>
+  <si>
+    <t>Rebars</t>
+  </si>
+  <si>
+    <t>Tin</t>
+  </si>
+  <si>
+    <t>Bricks</t>
+  </si>
+  <si>
+    <t>Cubic Metre Measurement</t>
+  </si>
+  <si>
+    <t>m3</t>
+  </si>
+  <si>
+    <t>Cubic Feet Measurement</t>
+  </si>
+  <si>
+    <t>cu. ft.</t>
+  </si>
+  <si>
+    <t>Sack Measurement</t>
+  </si>
+  <si>
+    <t>Sack</t>
+  </si>
+  <si>
+    <t>KG Plural Measurement</t>
+  </si>
+  <si>
+    <t>kgs.</t>
+  </si>
+  <si>
+    <t>Bundle Measurement</t>
+  </si>
+  <si>
+    <t>bundle</t>
+  </si>
+  <si>
+    <t>Pieces Measurement</t>
+  </si>
+  <si>
+    <t>pcs.</t>
+  </si>
+  <si>
+    <t>Types of Workers Title</t>
+  </si>
+  <si>
+    <t>Avg. daily wage (NRs.) Title</t>
+  </si>
+  <si>
+    <t>Skilled mason</t>
+  </si>
+  <si>
+    <t>Labourer</t>
+  </si>
+  <si>
+    <t>Types of Workers</t>
+  </si>
+  <si>
+    <t>Avg. daily wage (NRs.)</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Footer</t>
+  </si>
+  <si>
+    <t>Ava. stands for Avalibitity (Y - YES, N - No) * based on data from CBS ** from Municipal survey</t>
+  </si>
+  <si>
+    <t>Schools Title</t>
+  </si>
+  <si>
+    <t>Health Posts Title</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>Under-construction</t>
+  </si>
+  <si>
+    <t>Const. Completed</t>
+  </si>
+  <si>
+    <t>Schools</t>
+  </si>
+  <si>
+    <t>Palika Coordinator</t>
+  </si>
+  <si>
+    <t>GMaLI/NRA</t>
+  </si>
+  <si>
+    <t>Palika Coordinator Title</t>
+  </si>
+  <si>
+    <t>Municipal Office Title</t>
+  </si>
+  <si>
+    <t>GMaLI/NRA Title</t>
+  </si>
+  <si>
+    <t>DLPIU-Building Title</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Page 1</t>
+  </si>
+  <si>
+    <t>Sources Footer</t>
+  </si>
+  <si>
+    <t>Sources: 1. CENSUS 2011 2. NRA CBS 3. NRA 5W (25/10/2018) 4. NRA/MoFALD/MoUD (01/10/2018)</t>
+  </si>
+  <si>
+    <t>No Info Footer</t>
+  </si>
+  <si>
+    <t>*Note: ‘-’ indicates information not available</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>(Census 2011)1</t>
+  </si>
+  <si>
+    <t>EO Note</t>
+  </si>
+  <si>
+    <t>* up</t>
+  </si>
+  <si>
+    <t>1 Up</t>
+  </si>
+  <si>
+    <t>* Up</t>
+  </si>
+  <si>
+    <t>3 up</t>
+  </si>
+  <si>
+    <t>List 1</t>
+  </si>
+  <si>
+    <t>List 2</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Connect</t>
+  </si>
+  <si>
+    <t>CONNECT WITH US</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Pinterest?</t>
+  </si>
+  <si>
+    <t>Flickr</t>
+  </si>
+  <si>
+    <t>HRRPNepal</t>
+  </si>
+  <si>
+    <t>@HRRP_Nepal</t>
+  </si>
+  <si>
+    <t>/photos/hrrp</t>
+  </si>
+  <si>
+    <t>@HRRP</t>
+  </si>
+  <si>
+    <t>Land Issues</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>HHs WITH LAND ISSUES</t>
+  </si>
+  <si>
+    <t>Landless</t>
+  </si>
+  <si>
+    <t>No Land Certificates</t>
+  </si>
+  <si>
+    <t>Right of way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affected by HEP </t>
+  </si>
+  <si>
+    <t>Small plots</t>
+  </si>
+  <si>
+    <t>Guthi land</t>
+  </si>
+  <si>
+    <t>No information</t>
+  </si>
+  <si>
+    <t>Tech Staff</t>
+  </si>
+  <si>
+    <t>STATUS OF TECHNICAL STAFF</t>
+  </si>
+  <si>
+    <t>Staff Title</t>
+  </si>
+  <si>
+    <t>Available Title</t>
+  </si>
+  <si>
+    <t>Addl Req Title</t>
+  </si>
+  <si>
+    <t>Masons</t>
+  </si>
+  <si>
+    <t>Engineers</t>
+  </si>
+  <si>
+    <t>Sub-Engineers</t>
+  </si>
+  <si>
+    <t>Asst. Sub-Engineers</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Available Nos.</t>
+  </si>
+  <si>
+    <t>Additional Req. Nos.</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>TRAININGS</t>
+  </si>
+  <si>
+    <t>Sub Title</t>
+  </si>
+  <si>
+    <t>Trainings (# out of total required)</t>
+  </si>
+  <si>
+    <t>Short Training</t>
+  </si>
+  <si>
+    <t>Vocational Training</t>
+  </si>
+  <si>
+    <t>Reached</t>
+  </si>
+  <si>
+    <t>Remaining</t>
+  </si>
+  <si>
+    <t>Source: HRRP Analysis</t>
+  </si>
+  <si>
+    <t>Source: Municipal survey</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>TA ACTIVITIES MAP</t>
+  </si>
+  <si>
+    <t>Count of TA activities represents presence of any of the following: Demonstration Construction; Door-to-Door Technical Assistance; Community/Household reconstruction orientation; Helpdesk/Technical support center; Short training for mason; Vocational/On-the-job training for mason; OR Reconstruction Committee Formation.</t>
+  </si>
+  <si>
+    <t>FAQs</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Page 2</t>
+  </si>
+  <si>
+    <t>Futher Information</t>
+  </si>
+  <si>
+    <t>For further information</t>
+  </si>
+  <si>
+    <t>Info 1</t>
+  </si>
+  <si>
+    <t>Info 2</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>FACTS AND FIGURES</t>
+  </si>
+  <si>
+    <t>MAJOR HOUSING TYPOLOGIES</t>
+  </si>
+  <si>
+    <t>HOUSING RECONSTRUCTION &amp; RETROFIT UPDATES</t>
+  </si>
+  <si>
+    <t>STATUS OF CONSTRUCTION MATERIALS</t>
+  </si>
+  <si>
+    <t>OTHER SECTORS</t>
+  </si>
+  <si>
+    <t>KEY CONTACTS</t>
+  </si>
+  <si>
+    <t>ewan</t>
+  </si>
+  <si>
+    <t>"header_title"</t>
+  </si>
+  <si>
+    <t>"header_municipality"</t>
+  </si>
+  <si>
+    <t>"page_1_sources_footer"</t>
+  </si>
+  <si>
+    <t>"page_1_no_info_footer"</t>
+  </si>
+  <si>
+    <t>"page_2_futher_information"</t>
+  </si>
+  <si>
+    <t>"page_2_info_1"</t>
+  </si>
+  <si>
+    <t>"page_2_info_2"</t>
+  </si>
+  <si>
+    <t>"social_connect"</t>
+  </si>
+  <si>
+    <t>"social_fb"</t>
+  </si>
+  <si>
+    <t>"social_twitter"</t>
+  </si>
+  <si>
+    <t>"social_pinterest?"</t>
+  </si>
+  <si>
+    <t>"social_flickr"</t>
+  </si>
+  <si>
+    <t>"facts_and_figures_panel_title"</t>
+  </si>
+  <si>
+    <t>"facts_and_figures_damage_grade_(1-2)"</t>
+  </si>
+  <si>
+    <t>"facts_and_figures_damage_grade_(3-5)"</t>
+  </si>
+  <si>
+    <t>"facts_and_figures_total"</t>
+  </si>
+  <si>
+    <t>"typologies_panel_title"</t>
+  </si>
+  <si>
+    <t>"typologies_typology"</t>
+  </si>
+  <si>
+    <t>"typologies_municipal"</t>
+  </si>
+  <si>
+    <t>"typologies_district"</t>
+  </si>
+  <si>
+    <t>"typologies_source"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_panel_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_reconstruction_status_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_retrofitting_status_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_total_eligible_hhs_(both)"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_pa_agreement_(both)"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_ist_tranche_received_(both)"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_iind_tranche_received_(both)"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_iiird_tranche_received"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_houses_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_under_construction"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_completed"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_grievances_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_non-compliances_title"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_registered_(both)"</t>
+  </si>
+  <si>
+    <t>"recon_&amp;_retrofit_addressed_(both)"</t>
+  </si>
+  <si>
+    <t>"po_presence_pos_presence_title"</t>
+  </si>
+  <si>
+    <t>"po_presence_active"</t>
+  </si>
+  <si>
+    <t>"po_presence_phased_out"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_panel_title"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_materials_header"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_unit_header"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_req._quantity*_header"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_ava._header"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_cost_(nrs.)**_header"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_stone"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_aggregate"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_sand"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_timber"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_cement_(ppc)"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_cement_(opc)"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_rebars"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_tin"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_bricks"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_cubic_metre_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_cubic_feet_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_sack_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_kg_plural_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_bundle_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_pieces_measurement"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_types_of_workers"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_avg._daily_wage_(nrs.)"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_skilled_mason"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_labourer"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_footer"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_list_1"</t>
+  </si>
+  <si>
+    <t>"status_of_cm_list_2"</t>
+  </si>
+  <si>
+    <t>"other_sectors_panel_title"</t>
+  </si>
+  <si>
+    <t>"other_sectors_schools_title"</t>
+  </si>
+  <si>
+    <t>"other_sectors_health_posts_title"</t>
+  </si>
+  <si>
+    <t>"other_sectors_damaged"</t>
+  </si>
+  <si>
+    <t>"other_sectors_under-construction"</t>
+  </si>
+  <si>
+    <t>"other_sectors_const._completed"</t>
+  </si>
+  <si>
+    <t>"key_contacts_panel_title"</t>
+  </si>
+  <si>
+    <t>"key_contacts_palika_coordinator_title"</t>
+  </si>
+  <si>
+    <t>"key_contacts_municipal_office_title"</t>
+  </si>
+  <si>
+    <t>"key_contacts_gmali/nra_title"</t>
+  </si>
+  <si>
+    <t>"key_contacts_dlpiu-building_title"</t>
+  </si>
+  <si>
+    <t>"key_contacts_contact"</t>
+  </si>
+  <si>
+    <t>"land_issues_panel_title"</t>
+  </si>
+  <si>
+    <t>"land_issues_landless"</t>
+  </si>
+  <si>
+    <t>"land_issues_no_land_certificates"</t>
+  </si>
+  <si>
+    <t>"land_issues_right_of_way"</t>
+  </si>
+  <si>
+    <t>"land_issues_affected_by_hep_"</t>
+  </si>
+  <si>
+    <t>"land_issues_small_plots"</t>
+  </si>
+  <si>
+    <t>"land_issues_guthi_land"</t>
+  </si>
+  <si>
+    <t>"land_issues_no_information"</t>
+  </si>
+  <si>
+    <t>"tech_staff_panel_title"</t>
+  </si>
+  <si>
+    <t>"tech_staff_staff_title"</t>
+  </si>
+  <si>
+    <t>"tech_staff_available_title"</t>
+  </si>
+  <si>
+    <t>"tech_staff_addl_req_title"</t>
+  </si>
+  <si>
+    <t>"tech_staff_engineers"</t>
+  </si>
+  <si>
+    <t>"tech_staff_sub-engineers"</t>
+  </si>
+  <si>
+    <t>"tech_staff_asst._sub-engineers"</t>
+  </si>
+  <si>
+    <t>"tech_staff_masons"</t>
+  </si>
+  <si>
+    <t>"tech_staff_days"</t>
+  </si>
+  <si>
+    <t>"tech_staff_footer"</t>
+  </si>
+  <si>
+    <t>"training_panel_title"</t>
+  </si>
+  <si>
+    <t>"training_sub_title"</t>
+  </si>
+  <si>
+    <t>"training_short_training"</t>
+  </si>
+  <si>
+    <t>"training_vocational_training"</t>
+  </si>
+  <si>
+    <t>"training_reached"</t>
+  </si>
+  <si>
+    <t>"training_remaining"</t>
+  </si>
+  <si>
+    <t>"training_footer"</t>
+  </si>
+  <si>
+    <t>"map_panel_title"</t>
+  </si>
+  <si>
+    <t>"map_footer"</t>
+  </si>
+  <si>
+    <t>"faq_panel_title"</t>
+  </si>
+  <si>
+    <t>"faq_q"</t>
+  </si>
+  <si>
+    <t>"faq_a"</t>
+  </si>
+  <si>
+    <t>Assume bold first word?</t>
   </si>
 </sst>
 </file>
@@ -1748,7 +2582,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1762,8 +2596,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1823,20 +2681,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2115,7 +3006,7 @@
   <dimension ref="A1:DW16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN6" sqref="AN6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2739,7 +3630,7 @@
     </row>
     <row r="2" spans="1:127" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -2747,7 +3638,7 @@
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2767,7 +3658,7 @@
       <c r="W2" s="21"/>
       <c r="X2" s="21"/>
       <c r="Y2" s="21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z2" s="21"/>
       <c r="AA2" s="21"/>
@@ -2784,11 +3675,11 @@
       <c r="AL2" s="21"/>
       <c r="AM2" s="21"/>
       <c r="AN2" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO2" s="21"/>
       <c r="AP2" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ2" s="21"/>
       <c r="AR2" s="21"/>
@@ -2821,7 +3712,7 @@
       <c r="BS2" s="21"/>
       <c r="BT2" s="21"/>
       <c r="BU2" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BV2" s="21"/>
       <c r="BW2" s="21"/>
@@ -2829,7 +3720,7 @@
       <c r="BY2" s="21"/>
       <c r="BZ2" s="21"/>
       <c r="CA2" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="CB2" s="21"/>
       <c r="CC2" s="21"/>
@@ -2851,7 +3742,7 @@
       <c r="CS2" s="21"/>
       <c r="CT2" s="21"/>
       <c r="CU2" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="CV2" s="21"/>
       <c r="CW2" s="21"/>
@@ -2859,7 +3750,7 @@
       <c r="CY2" s="21"/>
       <c r="CZ2" s="21"/>
       <c r="DA2" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="DB2" s="21"/>
       <c r="DC2" s="21"/>
@@ -2871,7 +3762,7 @@
       <c r="DI2" s="21"/>
       <c r="DJ2" s="21"/>
       <c r="DK2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="DL2" s="21"/>
       <c r="DM2" s="21"/>
@@ -2879,10 +3770,10 @@
       <c r="DO2" s="21"/>
       <c r="DP2" s="21"/>
       <c r="DQ2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="DR2" s="21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="DS2" s="21"/>
       <c r="DT2" s="21"/>
@@ -2892,385 +3783,385 @@
     </row>
     <row r="3" spans="1:127" s="1" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="BS3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="BT3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BU3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BV3" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="BW3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BX3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="BZ3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="DB3" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BG3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BH3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="BI3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="BJ3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BK3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BL3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BM3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="BO3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="BP3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BQ3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BR3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BS3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BT3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BU3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="BV3" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="BW3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="BX3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY3" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="BZ3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="CA3" s="3" t="s">
+      <c r="DC3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="DF3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="DL3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="DM3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="DR3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="CB3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="CD3" s="3" t="s">
+      <c r="DS3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="DV3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="CE3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="CF3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="CI3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="CL3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="CM3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="CN3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="DT3" s="3" t="s">
+      <c r="DW3" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:127" x14ac:dyDescent="0.2">
@@ -3278,10 +4169,10 @@
         <v>24001</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="6">
         <v>4855</v>
@@ -3294,7 +4185,7 @@
         <v>12045</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>0.12909921129099211</v>
@@ -3303,7 +4194,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7">
         <v>0.29522623495226236</v>
@@ -3312,7 +4203,7 @@
         <v>0.69</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N4" s="7">
         <v>0.22814445828144458</v>
@@ -3321,7 +4212,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7">
         <v>6.2266500622665004E-3</v>
@@ -3330,7 +4221,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T4" s="7">
         <v>0.1672063096720631</v>
@@ -3339,7 +4230,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W4" s="7">
         <v>0.17409713574097135</v>
@@ -3389,10 +4280,10 @@
         <v>25</v>
       </c>
       <c r="AN4" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>173</v>
-      </c>
-      <c r="AO4" s="6" t="s">
-        <v>174</v>
       </c>
       <c r="AP4" s="9">
         <v>15839.6535767353</v>
@@ -3438,11 +4329,11 @@
       <c r="BO4" s="6"/>
       <c r="BP4" s="6"/>
       <c r="BQ4" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR4" s="10"/>
       <c r="BS4" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT4" s="10"/>
       <c r="BU4" s="6"/>
@@ -3452,61 +4343,61 @@
       <c r="BY4" s="6"/>
       <c r="BZ4" s="6"/>
       <c r="CA4" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="CB4" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="CB4" s="6" t="s">
+      <c r="CC4" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="CC4" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="CD4" s="6">
         <v>9851056975</v>
       </c>
       <c r="CE4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CG4" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="CG4" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="CH4" s="11">
         <v>9860936366</v>
       </c>
       <c r="CI4" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ4" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="CK4" s="6" t="s">
         <v>182</v>
-      </c>
-      <c r="CK4" s="6" t="s">
-        <v>183</v>
       </c>
       <c r="CL4" s="6">
         <v>9851049487</v>
       </c>
       <c r="CM4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN4" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN4" s="6" t="s">
+      <c r="CO4" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO4" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP4" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR4" s="6" t="s">
+      <c r="CS4" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS4" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT4" s="6">
         <v>9851090449</v>
@@ -3562,10 +4453,10 @@
         <v>24002</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="6">
         <v>738</v>
@@ -3578,7 +4469,7 @@
         <v>4663</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>8.5781685610122243E-4</v>
@@ -3587,7 +4478,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7">
         <v>0.89127171348917011</v>
@@ -3596,7 +4487,7 @@
         <v>0.69</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N5" s="7">
         <v>4.2890842805061117E-3</v>
@@ -3605,7 +4496,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7">
         <v>6.4336264207591682E-4</v>
@@ -3614,7 +4505,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T5" s="7">
         <v>2.3589963542783618E-3</v>
@@ -3623,7 +4514,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W5" s="7">
         <v>0.10057902637786832</v>
@@ -3673,10 +4564,10 @@
         <v>4</v>
       </c>
       <c r="AN5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="AO5" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="AO5" s="6" t="s">
-        <v>192</v>
       </c>
       <c r="AP5" s="9">
         <v>9227.1275362318847</v>
@@ -3722,13 +4613,13 @@
       <c r="BO5" s="6"/>
       <c r="BP5" s="6"/>
       <c r="BQ5" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR5" s="6">
         <v>1500</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT5" s="6">
         <v>800</v>
@@ -3740,61 +4631,61 @@
       <c r="BY5" s="6"/>
       <c r="BZ5" s="6"/>
       <c r="CA5" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CC5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD5" s="6">
         <v>9851099511</v>
       </c>
       <c r="CE5" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="CG5" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH5" s="11">
         <v>9841447532</v>
       </c>
       <c r="CI5" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CK5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL5" s="6">
         <v>9851154211</v>
       </c>
       <c r="CM5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN5" s="6" t="s">
+      <c r="CO5" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO5" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP5" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR5" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR5" s="6" t="s">
+      <c r="CS5" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS5" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT5" s="6">
         <v>9851090449</v>
@@ -3862,10 +4753,10 @@
         <v>24003</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6">
         <v>254</v>
@@ -3878,7 +4769,7 @@
         <v>6151</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H6" s="7">
         <v>8.128759551292473E-4</v>
@@ -3887,7 +4778,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K6" s="7">
         <v>0.97008616485124366</v>
@@ -3896,7 +4787,7 @@
         <v>0.69</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N6" s="7">
         <v>1.2680864900016258E-2</v>
@@ -3905,7 +4796,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7">
         <v>6.5030076410339777E-4</v>
@@ -3914,7 +4805,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T6" s="7">
         <v>1.0079661843602667E-2</v>
@@ -3923,7 +4814,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W6" s="7">
         <v>5.6901316859047308E-3</v>
@@ -3969,16 +4860,16 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO6" s="6" t="s">
         <v>197</v>
-      </c>
-      <c r="AO6" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="AP6" s="14">
         <v>19712.657664233579</v>
       </c>
       <c r="AQ6" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR6" s="15">
         <v>3000</v>
@@ -3987,7 +4878,7 @@
         <v>29797.94854014599</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AU6" s="15">
         <v>5000</v>
@@ -4011,7 +4902,7 @@
         <v>98363</v>
       </c>
       <c r="BF6" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG6" s="15">
         <v>1100</v>
@@ -4020,7 +4911,7 @@
         <v>3896008.3941605845</v>
       </c>
       <c r="BI6" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ6" s="15">
         <v>100</v>
@@ -4036,13 +4927,13 @@
       <c r="BO6" s="6"/>
       <c r="BP6" s="6"/>
       <c r="BQ6" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR6" s="15">
         <v>1200</v>
       </c>
       <c r="BS6" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT6" s="15">
         <v>1000</v>
@@ -4054,61 +4945,61 @@
       <c r="BY6" s="6"/>
       <c r="BZ6" s="6"/>
       <c r="CA6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="CC6" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD6" s="6">
         <v>9851084008</v>
       </c>
       <c r="CE6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="CG6" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH6" s="11">
         <v>9841648772</v>
       </c>
       <c r="CI6" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ6" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="CK6" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL6" s="6">
         <v>9841831427</v>
       </c>
       <c r="CM6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN6" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN6" s="6" t="s">
+      <c r="CO6" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO6" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP6" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR6" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR6" s="6" t="s">
+      <c r="CS6" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS6" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT6" s="6">
         <v>9851090449</v>
@@ -4172,10 +5063,10 @@
         <v>24004</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="6">
         <v>654</v>
@@ -4188,7 +5079,7 @@
         <v>6135</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>1.6299918500407498E-4</v>
@@ -4197,7 +5088,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7">
         <v>0.9791361043194784</v>
@@ -4206,7 +5097,7 @@
         <v>0.69</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N7" s="7">
         <v>4.8899755501222489E-4</v>
@@ -4215,7 +5106,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7">
         <v>1.3039934800325999E-3</v>
@@ -4224,7 +5115,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S7" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T7" s="7">
         <v>9.7799511002444979E-4</v>
@@ -4233,7 +5124,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W7" s="7">
         <v>1.7929910350448247E-2</v>
@@ -4279,10 +5170,10 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO7" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="AO7" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="AP7" s="14">
         <v>11003.716981132075</v>
@@ -4313,7 +5204,7 @@
         <v>61968</v>
       </c>
       <c r="BF7" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG7" s="6"/>
       <c r="BH7" s="14">
@@ -4332,13 +5223,13 @@
       <c r="BO7" s="6"/>
       <c r="BP7" s="6"/>
       <c r="BQ7" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR7" s="15">
         <v>1200</v>
       </c>
       <c r="BS7" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT7" s="15">
         <v>1000</v>
@@ -4350,61 +5241,61 @@
       <c r="BY7" s="6"/>
       <c r="BZ7" s="6"/>
       <c r="CA7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB7" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="CC7" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD7" s="6">
         <v>9751003030</v>
       </c>
       <c r="CE7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF7" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="CG7" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH7" s="11">
         <v>9865051558</v>
       </c>
       <c r="CI7" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ7" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CK7" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL7" s="6">
         <v>9861965095</v>
       </c>
       <c r="CM7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN7" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN7" s="6" t="s">
+      <c r="CO7" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO7" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP7" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR7" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR7" s="6" t="s">
+      <c r="CS7" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS7" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT7" s="6">
         <v>9851090449</v>
@@ -4472,10 +5363,10 @@
         <v>24005</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="6">
         <v>2094</v>
@@ -4488,7 +5379,7 @@
         <v>7881</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H8" s="7">
         <v>6.4078162669711961E-2</v>
@@ -4497,7 +5388,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7">
         <v>0.38205811445248067</v>
@@ -4506,7 +5397,7 @@
         <v>0.69</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N8" s="7">
         <v>8.4760817155183354E-2</v>
@@ -4515,7 +5406,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7">
         <v>3.6797360741022715E-3</v>
@@ -4524,7 +5415,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S8" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T8" s="7">
         <v>9.6561350082476849E-2</v>
@@ -4533,7 +5424,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W8" s="7">
         <v>0.36886181956604491</v>
@@ -4584,7 +5475,7 @@
       </c>
       <c r="AN8" s="6"/>
       <c r="AO8" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AP8" s="9">
         <v>14998.497358490564</v>
@@ -4630,13 +5521,13 @@
       <c r="BO8" s="6"/>
       <c r="BP8" s="6"/>
       <c r="BQ8" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR8" s="6">
         <v>1200</v>
       </c>
       <c r="BS8" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT8" s="6">
         <v>800</v>
@@ -4648,61 +5539,61 @@
       <c r="BY8" s="6"/>
       <c r="BZ8" s="6"/>
       <c r="CA8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB8" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="CC8" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD8" s="6">
         <v>9851073175</v>
       </c>
       <c r="CE8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF8" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="CG8" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH8" s="6">
         <v>9841578064</v>
       </c>
       <c r="CI8" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ8" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CK8" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL8" s="6">
         <v>9851066871</v>
       </c>
       <c r="CM8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN8" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN8" s="6" t="s">
+      <c r="CO8" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO8" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP8" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR8" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR8" s="6" t="s">
+      <c r="CS8" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS8" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT8" s="6">
         <v>9851090449</v>
@@ -4756,10 +5647,10 @@
         <v>24006</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D9" s="6">
         <v>315</v>
@@ -4772,7 +5663,7 @@
         <v>2746</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4781,7 +5672,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K9" s="7">
         <v>0.84887108521485799</v>
@@ -4790,7 +5681,7 @@
         <v>0.69</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N9" s="7">
         <v>0</v>
@@ -4799,7 +5690,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7">
         <v>4.3699927166788053E-3</v>
@@ -4808,7 +5699,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T9" s="7">
         <v>0</v>
@@ -4817,7 +5708,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W9" s="7">
         <v>0.14675892206846322</v>
@@ -4863,16 +5754,16 @@
       <c r="AL9" s="6"/>
       <c r="AM9" s="6"/>
       <c r="AN9" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO9" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AP9" s="14">
         <v>2253.8461538461538</v>
       </c>
       <c r="AQ9" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR9" s="15">
         <v>2000</v>
@@ -4881,7 +5772,7 @@
         <v>2253.8461538461538</v>
       </c>
       <c r="AT9" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU9" s="15">
         <v>10000</v>
@@ -4905,7 +5796,7 @@
         <v>40231</v>
       </c>
       <c r="BF9" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG9" s="15">
         <v>1000</v>
@@ -4926,11 +5817,11 @@
       <c r="BO9" s="6"/>
       <c r="BP9" s="6"/>
       <c r="BQ9" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR9" s="15"/>
       <c r="BS9" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT9" s="15"/>
       <c r="BU9" s="6"/>
@@ -4940,61 +5831,61 @@
       <c r="BY9" s="6"/>
       <c r="BZ9" s="6"/>
       <c r="CA9" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB9" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="CC9" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD9" s="6">
         <v>9741277731</v>
       </c>
       <c r="CE9" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF9" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="CG9" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH9" s="11">
         <v>9621198697</v>
       </c>
       <c r="CI9" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ9" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="CK9" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL9" s="6">
         <v>9841400343</v>
       </c>
       <c r="CM9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN9" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN9" s="6" t="s">
+      <c r="CO9" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO9" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP9" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR9" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR9" s="6" t="s">
+      <c r="CS9" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS9" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT9" s="6">
         <v>9851090449</v>
@@ -5048,10 +5939,10 @@
         <v>24007</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" s="6">
         <v>643</v>
@@ -5064,7 +5955,7 @@
         <v>3504</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="7">
         <v>2.8538812785388126E-4</v>
@@ -5073,7 +5964,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K10" s="7">
         <v>0.94035388127853881</v>
@@ -5082,7 +5973,7 @@
         <v>0.69</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N10" s="7">
         <v>2.8538812785388126E-4</v>
@@ -5091,7 +5982,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7">
         <v>0</v>
@@ -5100,7 +5991,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S10" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T10" s="7">
         <v>0</v>
@@ -5109,7 +6000,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W10" s="7">
         <v>5.9075342465753425E-2</v>
@@ -5155,16 +6046,16 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO10" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AP10" s="14">
         <v>1968.3028248587573</v>
       </c>
       <c r="AQ10" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR10" s="15">
         <v>4000</v>
@@ -5173,7 +6064,7 @@
         <v>2060.3457627118646</v>
       </c>
       <c r="AT10" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU10" s="15">
         <v>7000</v>
@@ -5197,7 +6088,7 @@
         <v>51653</v>
       </c>
       <c r="BF10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG10" s="15">
         <v>1000</v>
@@ -5206,7 +6097,7 @@
         <v>285932.20338983054</v>
       </c>
       <c r="BI10" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ10" s="15">
         <v>110</v>
@@ -5222,13 +6113,13 @@
       <c r="BO10" s="6"/>
       <c r="BP10" s="6"/>
       <c r="BQ10" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR10" s="15">
         <v>1000</v>
       </c>
       <c r="BS10" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT10" s="15">
         <v>700</v>
@@ -5240,61 +6131,61 @@
       <c r="BY10" s="6"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB10" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="CC10" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD10" s="6">
         <v>9751009710</v>
       </c>
       <c r="CE10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF10" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="CG10" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH10" s="18">
         <v>9621105710</v>
       </c>
       <c r="CI10" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ10" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CK10" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL10" s="6">
         <v>9851227723</v>
       </c>
       <c r="CM10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN10" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CO10" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO10" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP10" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR10" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CS10" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS10" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT10" s="6">
         <v>9851090449</v>
@@ -5370,10 +6261,10 @@
         <v>24008</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="6">
         <v>967</v>
@@ -5386,7 +6277,7 @@
         <v>9735</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>1.6743708269131997E-2</v>
@@ -5395,7 +6286,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7">
         <v>0.87231638418079094</v>
@@ -5404,7 +6295,7 @@
         <v>0.69</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N11" s="7">
         <v>2.1982537236774524E-2</v>
@@ -5413,7 +6304,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7">
         <v>3.0816640986132513E-3</v>
@@ -5422,7 +6313,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T11" s="7">
         <v>3.2768361581920903E-2</v>
@@ -5431,7 +6322,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W11" s="7">
         <v>5.3107344632768359E-2</v>
@@ -5481,10 +6372,10 @@
         <v>19</v>
       </c>
       <c r="AN11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO11" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="AO11" s="6" t="s">
-        <v>227</v>
       </c>
       <c r="AP11" s="9">
         <v>21440.41236093943</v>
@@ -5530,11 +6421,11 @@
       <c r="BO11" s="6"/>
       <c r="BP11" s="6"/>
       <c r="BQ11" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR11" s="15"/>
       <c r="BS11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT11" s="15"/>
       <c r="BU11" s="6"/>
@@ -5544,61 +6435,61 @@
       <c r="BY11" s="6"/>
       <c r="BZ11" s="6"/>
       <c r="CA11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB11" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="CC11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD11" s="6">
         <v>9851199918</v>
       </c>
       <c r="CE11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF11" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="CG11" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH11" s="11">
         <v>9843445819</v>
       </c>
       <c r="CI11" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ11" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="CK11" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL11" s="6">
         <v>9851243560</v>
       </c>
       <c r="CM11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN11" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN11" s="6" t="s">
+      <c r="CO11" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO11" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP11" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR11" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR11" s="6" t="s">
+      <c r="CS11" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS11" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT11" s="6">
         <v>9851090449</v>
@@ -5652,10 +6543,10 @@
         <v>24009</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" s="6">
         <v>1209</v>
@@ -5668,7 +6559,7 @@
         <v>8273</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H12" s="7">
         <v>1.5834642813973166E-2</v>
@@ -5677,7 +6568,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7">
         <v>0.72670131753898226</v>
@@ -5686,7 +6577,7 @@
         <v>0.69</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N12" s="7">
         <v>1.7526894717756557E-2</v>
@@ -5695,7 +6586,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="7">
         <v>1.0878762238607518E-3</v>
@@ -5704,7 +6595,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S12" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T12" s="7">
         <v>1.7406019581772028E-2</v>
@@ -5713,7 +6604,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W12" s="7">
         <v>0.22144324912365526</v>
@@ -5764,13 +6655,13 @@
       </c>
       <c r="AN12" s="6"/>
       <c r="AO12" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AP12" s="9">
         <v>9692.1434094903343</v>
       </c>
       <c r="AQ12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AR12" s="6">
         <v>13200</v>
@@ -5799,7 +6690,7 @@
         <v>52040</v>
       </c>
       <c r="BF12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BG12" s="15">
         <v>930</v>
@@ -5808,7 +6699,7 @@
         <v>2192163.7961335676</v>
       </c>
       <c r="BI12" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BJ12" s="15">
         <v>240</v>
@@ -5824,13 +6715,13 @@
       <c r="BO12" s="6"/>
       <c r="BP12" s="6"/>
       <c r="BQ12" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR12" s="15">
         <v>1500</v>
       </c>
       <c r="BS12" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT12" s="15">
         <v>950</v>
@@ -5842,61 +6733,61 @@
       <c r="BY12" s="6"/>
       <c r="BZ12" s="6"/>
       <c r="CA12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB12" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="CC12" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD12" s="6">
         <v>9851149160</v>
       </c>
       <c r="CE12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF12" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="CG12" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH12" s="11">
         <v>9851154222</v>
       </c>
       <c r="CI12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ12" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="CK12" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL12" s="6">
         <v>9841912151</v>
       </c>
       <c r="CM12" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN12" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN12" s="6" t="s">
+      <c r="CO12" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO12" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP12" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR12" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR12" s="6" t="s">
+      <c r="CS12" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS12" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT12" s="6">
         <v>9851090449</v>
@@ -5964,10 +6855,10 @@
         <v>24010</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="6">
         <v>3435</v>
@@ -5980,7 +6871,7 @@
         <v>12285</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
         <v>0.10085470085470086</v>
@@ -5989,7 +6880,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7">
         <v>0.42116402116402119</v>
@@ -5998,7 +6889,7 @@
         <v>0.69</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N13" s="7">
         <v>0.12153032153032153</v>
@@ -6007,7 +6898,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7">
         <v>4.6398046398046398E-3</v>
@@ -6016,7 +6907,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S13" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T13" s="7">
         <v>6.7480667480667486E-2</v>
@@ -6025,7 +6916,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W13" s="7">
         <v>0.28433048433048436</v>
@@ -6075,16 +6966,16 @@
         <v>7</v>
       </c>
       <c r="AN13" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AO13" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="AO13" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="AP13" s="14">
         <v>26137.510319708621</v>
       </c>
       <c r="AQ13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AR13" s="15">
         <v>5500</v>
@@ -6093,7 +6984,7 @@
         <v>53287.418454067178</v>
       </c>
       <c r="AT13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AU13" s="15">
         <v>9000</v>
@@ -6117,7 +7008,7 @@
         <v>100424</v>
       </c>
       <c r="BF13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BG13" s="15">
         <v>1100</v>
@@ -6126,7 +7017,7 @@
         <v>6718033.9943342768</v>
       </c>
       <c r="BI13" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BJ13" s="15">
         <v>96</v>
@@ -6142,13 +7033,13 @@
       <c r="BO13" s="6"/>
       <c r="BP13" s="6"/>
       <c r="BQ13" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR13" s="15">
         <v>1200</v>
       </c>
       <c r="BS13" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT13" s="15">
         <v>1000</v>
@@ -6160,61 +7051,61 @@
       <c r="BY13" s="6"/>
       <c r="BZ13" s="6"/>
       <c r="CA13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB13" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="CC13" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD13" s="6">
         <v>9851169272</v>
       </c>
       <c r="CE13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF13" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="CG13" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH13" s="11">
         <v>9841543139</v>
       </c>
       <c r="CI13" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ13" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="CK13" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL13" s="6">
         <v>9851195271</v>
       </c>
       <c r="CM13" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN13" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN13" s="6" t="s">
+      <c r="CO13" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO13" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP13" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ13" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR13" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR13" s="6" t="s">
+      <c r="CS13" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS13" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT13" s="6">
         <v>9851090449</v>
@@ -6296,10 +7187,10 @@
         <v>24011</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="6">
         <v>1721</v>
@@ -6312,7 +7203,7 @@
         <v>10999</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>2.818438039821802E-2</v>
@@ -6321,7 +7212,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7">
         <v>0.57496136012364762</v>
@@ -6330,7 +7221,7 @@
         <v>0.69</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N14" s="7">
         <v>4.1185562323847624E-2</v>
@@ -6339,7 +7230,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q14" s="7">
         <v>2.6366033275752342E-3</v>
@@ -6348,7 +7239,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S14" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T14" s="7">
         <v>3.4184925902354758E-2</v>
@@ -6357,7 +7248,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W14" s="7">
         <v>0.31884716792435674</v>
@@ -6408,7 +7299,7 @@
       </c>
       <c r="AN14" s="6"/>
       <c r="AO14" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AP14" s="9">
         <v>14803.184000000001</v>
@@ -6454,13 +7345,13 @@
       <c r="BO14" s="6"/>
       <c r="BP14" s="6"/>
       <c r="BQ14" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR14" s="6">
         <v>1400</v>
       </c>
       <c r="BS14" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT14" s="6">
         <v>800</v>
@@ -6472,61 +7363,61 @@
       <c r="BY14" s="6"/>
       <c r="BZ14" s="6"/>
       <c r="CA14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB14" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="CC14" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD14" s="6">
         <v>9843041788</v>
       </c>
       <c r="CE14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF14" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="CG14" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH14" s="11">
         <v>9841670594</v>
       </c>
       <c r="CI14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ14" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="CK14" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL14" s="6">
         <v>9851250031</v>
       </c>
       <c r="CM14" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN14" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN14" s="6" t="s">
+      <c r="CO14" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO14" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP14" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR14" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR14" s="6" t="s">
+      <c r="CS14" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS14" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT14" s="6">
         <v>9851090449</v>
@@ -6553,7 +7444,7 @@
       <c r="DH14" s="6"/>
       <c r="DI14" s="6"/>
       <c r="DJ14" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="DK14" s="12">
         <v>626</v>
@@ -6588,10 +7479,10 @@
         <v>24012</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D15" s="6">
         <v>1539</v>
@@ -6604,7 +7495,7 @@
         <v>7401</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H15" s="7">
         <v>1.3511687609782462E-3</v>
@@ -6613,7 +7504,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K15" s="7">
         <v>0.96662613160383737</v>
@@ -6622,7 +7513,7 @@
         <v>0.69</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N15" s="7">
         <v>2.837454398054317E-3</v>
@@ -6631,7 +7522,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q15" s="7">
         <v>1.8916362653695446E-3</v>
@@ -6640,7 +7531,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T15" s="7">
         <v>2.7023375219564923E-3</v>
@@ -6649,7 +7540,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W15" s="7">
         <v>2.4591271449804081E-2</v>
@@ -6696,7 +7587,7 @@
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AP15" s="9">
         <v>12284.669918699188</v>
@@ -6742,11 +7633,11 @@
       <c r="BO15" s="6"/>
       <c r="BP15" s="6"/>
       <c r="BQ15" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR15" s="6"/>
       <c r="BS15" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT15" s="6"/>
       <c r="BU15" s="6"/>
@@ -6756,61 +7647,61 @@
       <c r="BY15" s="6"/>
       <c r="BZ15" s="6"/>
       <c r="CA15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB15" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="CC15" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD15" s="6">
         <v>9851023673</v>
       </c>
       <c r="CE15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF15" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CG15" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH15" s="11">
         <v>9841005964</v>
       </c>
       <c r="CI15" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ15" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="CK15" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL15" s="6">
         <v>9841344795</v>
       </c>
       <c r="CM15" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN15" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN15" s="6" t="s">
+      <c r="CO15" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO15" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP15" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ15" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR15" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR15" s="6" t="s">
+      <c r="CS15" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS15" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT15" s="6">
         <v>9851090449</v>
@@ -6864,10 +7755,10 @@
         <v>24013</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D16" s="6">
         <v>1632</v>
@@ -6880,7 +7771,7 @@
         <v>6201</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
         <v>9.6758587324625057E-4</v>
@@ -6889,7 +7780,7 @@
         <v>4.0099999999999997E-2</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7">
         <v>0.99193678438961452</v>
@@ -6898,7 +7789,7 @@
         <v>0.69</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N16" s="7">
         <v>4.8379293662312528E-4</v>
@@ -6907,7 +7798,7 @@
         <v>5.9700000000000003E-2</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7">
         <v>1.6126431220770843E-3</v>
@@ -6916,7 +7807,7 @@
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="S16" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="T16" s="7">
         <v>1.1288501854539591E-3</v>
@@ -6925,7 +7816,7 @@
         <v>4.6399999999999997E-2</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="W16" s="7">
         <v>3.8703434929850023E-3</v>
@@ -6972,7 +7863,7 @@
       <c r="AM16" s="6"/>
       <c r="AN16" s="6"/>
       <c r="AO16" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AP16" s="9">
         <v>10073.668141592922</v>
@@ -7018,13 +7909,13 @@
       <c r="BO16" s="6"/>
       <c r="BP16" s="6"/>
       <c r="BQ16" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BR16" s="6">
         <v>1500</v>
       </c>
       <c r="BS16" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BT16" s="6">
         <v>1000</v>
@@ -7036,61 +7927,61 @@
       <c r="BY16" s="6"/>
       <c r="BZ16" s="6"/>
       <c r="CA16" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CB16" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="CC16" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="CD16" s="6">
         <v>9851083953</v>
       </c>
       <c r="CE16" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CF16" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="CG16" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="CH16" s="11">
         <v>9849482709</v>
       </c>
       <c r="CI16" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="CJ16" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="CK16" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="CL16" s="6">
         <v>9841700755</v>
       </c>
       <c r="CM16" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN16" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="CN16" s="6" t="s">
+      <c r="CO16" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="CO16" s="6" t="s">
-        <v>186</v>
       </c>
       <c r="CP16" s="6">
         <v>9851146403</v>
       </c>
       <c r="CQ16" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="CR16" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="CR16" s="6" t="s">
+      <c r="CS16" s="6" t="s">
         <v>188</v>
-      </c>
-      <c r="CS16" s="6" t="s">
-        <v>189</v>
       </c>
       <c r="CT16" s="6">
         <v>9851090449</v>
@@ -7169,60 +8060,2826 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="77.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C1" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(C2," ","_"))))</f>
+        <v>#code</v>
+      </c>
+      <c r="D1" t="str">
+        <f t="shared" ref="D1:H1" si="0">CONCATENATE("#",(LOWER(SUBSTITUTE(D2," ","_"))))</f>
+        <v>#order</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" si="0"/>
+        <v>#section</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" si="0"/>
+        <v>#item</v>
+      </c>
+      <c r="G1" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>#english</v>
+      </c>
+      <c r="H1" t="str">
+        <f t="shared" si="0"/>
+        <v>#nepali</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" t="str">
+        <f>SUBSTITUTE(A3,"""","'")</f>
+        <v>'header_title'</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E3,"_",F3)," ","_"))))</f>
+        <v>#header_title</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F3" t="s">
+        <v>661</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>715</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" ref="B4:B67" si="1">SUBSTITUTE(A4,"""","'")</f>
+        <v>'header_municipality'</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E4,"_",F4)," ","_"))))</f>
+        <v>#header_municipality</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" t="s">
+        <v>542</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="1"/>
+        <v>'page_1_sources_footer'</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E5,"_",F5)," ","_"))))</f>
+        <v>#page_1_sources_footer</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>633</v>
+      </c>
+      <c r="F5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="1"/>
+        <v>'page_1_no_info_footer'</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E6,"_",F6)," ","_"))))</f>
+        <v>#page_1_no_info_footer</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>633</v>
+      </c>
+      <c r="F6" t="s">
+        <v>636</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="J6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>718</v>
+      </c>
+      <c r="B7" t="str">
+        <f t="shared" si="1"/>
+        <v>'page_2_futher_information'</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E7,"_",F7)," ","_"))))</f>
+        <v>#page_2_futher_information</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>700</v>
+      </c>
+      <c r="F7" t="s">
+        <v>701</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B8" t="str">
+        <f t="shared" si="1"/>
+        <v>'page_2_info_1'</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E8,"_",F8)," ","_"))))</f>
+        <v>#page_2_info_1</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>700</v>
+      </c>
+      <c r="F8" t="s">
+        <v>703</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>720</v>
+      </c>
+      <c r="B9" t="str">
+        <f t="shared" si="1"/>
+        <v>'page_2_info_2'</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E9,"_",F9)," ","_"))))</f>
+        <v>#page_2_info_2</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>700</v>
+      </c>
+      <c r="F9" t="s">
+        <v>704</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>721</v>
+      </c>
+      <c r="B10" t="str">
+        <f t="shared" si="1"/>
+        <v>'social_connect'</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E10,"_",F10)," ","_"))))</f>
+        <v>#social_connect</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>649</v>
+      </c>
+      <c r="F10" t="s">
+        <v>650</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" t="str">
+        <f t="shared" si="1"/>
+        <v>'social_fb'</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E11,"_",F11)," ","_"))))</f>
+        <v>#social_fb</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>649</v>
+      </c>
+      <c r="F11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" t="str">
+        <f t="shared" si="1"/>
+        <v>'social_twitter'</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E12,"_",F12)," ","_"))))</f>
+        <v>#social_twitter</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F12" t="s">
+        <v>653</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B13" t="str">
+        <f t="shared" si="1"/>
+        <v>'social_pinterest?'</v>
+      </c>
+      <c r="C13" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E13,"_",F13)," ","_"))))</f>
+        <v>#social_pinterest?</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>649</v>
+      </c>
+      <c r="F13" t="s">
+        <v>654</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B14" t="str">
+        <f t="shared" si="1"/>
+        <v>'social_flickr'</v>
+      </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E14,"_",F14)," ","_"))))</f>
+        <v>#social_flickr</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>649</v>
+      </c>
+      <c r="F14" t="s">
+        <v>655</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>726</v>
+      </c>
+      <c r="B15" t="str">
+        <f t="shared" si="1"/>
+        <v>'facts_and_figures_panel_title'</v>
+      </c>
+      <c r="C15" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E15,"_",F15)," ","_"))))</f>
+        <v>#facts_and_figures_panel_title</v>
+      </c>
+      <c r="D15">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>579</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" t="str">
+        <f t="shared" si="1"/>
+        <v>'facts_and_figures_damage_grade_(1-2)'</v>
+      </c>
+      <c r="C16" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E16,"_",F16)," ","_"))))</f>
+        <v>#facts_and_figures_damage_grade_(1-2)</v>
+      </c>
+      <c r="D16">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
         <v>543</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G16" s="23" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" t="str">
+        <f t="shared" si="1"/>
+        <v>'facts_and_figures_damage_grade_(3-5)'</v>
+      </c>
+      <c r="C17" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E17,"_",F17)," ","_"))))</f>
+        <v>#facts_and_figures_damage_grade_(3-5)</v>
+      </c>
+      <c r="D17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>542</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F17" t="s">
         <v>544</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G17" s="23" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>729</v>
+      </c>
+      <c r="B18" t="str">
+        <f t="shared" si="1"/>
+        <v>'facts_and_figures_total'</v>
+      </c>
+      <c r="C18" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E18,"_",F18)," ","_"))))</f>
+        <v>#facts_and_figures_total</v>
+      </c>
+      <c r="D18">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>542</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="G18" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>730</v>
+      </c>
+      <c r="B19" t="str">
+        <f t="shared" si="1"/>
+        <v>'typologies_panel_title'</v>
+      </c>
+      <c r="C19" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E19,"_",F19)," ","_"))))</f>
+        <v>#typologies_panel_title</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>546</v>
       </c>
-      <c r="C3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D3" t="s">
-        <v>541</v>
+      <c r="F19" t="s">
+        <v>579</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>731</v>
+      </c>
+      <c r="B20" t="str">
+        <f t="shared" si="1"/>
+        <v>'typologies_typology'</v>
+      </c>
+      <c r="C20" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E20,"_",F20)," ","_"))))</f>
+        <v>#typologies_typology</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>546</v>
+      </c>
+      <c r="F20" t="s">
+        <v>547</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>732</v>
+      </c>
+      <c r="B21" t="str">
+        <f t="shared" si="1"/>
+        <v>'typologies_municipal'</v>
+      </c>
+      <c r="C21" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E21,"_",F21)," ","_"))))</f>
+        <v>#typologies_municipal</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>546</v>
+      </c>
+      <c r="F21" t="s">
+        <v>548</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>733</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" si="1"/>
+        <v>'typologies_district'</v>
+      </c>
+      <c r="C22" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E22,"_",F22)," ","_"))))</f>
+        <v>#typologies_district</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>546</v>
+      </c>
+      <c r="F22" t="s">
+        <v>549</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>734</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>'typologies_source'</v>
+      </c>
+      <c r="C23" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E23,"_",F23)," ","_"))))</f>
+        <v>#typologies_source</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>546</v>
+      </c>
+      <c r="F23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="J23" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>735</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_panel_title'</v>
+      </c>
+      <c r="C24" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E24,"_",F24)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_panel_title</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>550</v>
+      </c>
+      <c r="F24" t="s">
+        <v>579</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>736</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_reconstruction_status_title'</v>
+      </c>
+      <c r="C25" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E25,"_",F25)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_reconstruction_status_title</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" t="s">
+        <v>561</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_retrofitting_status_title'</v>
+      </c>
+      <c r="C26" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E26,"_",F26)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_retrofitting_status_title</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>550</v>
+      </c>
+      <c r="F26" t="s">
+        <v>562</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>738</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_total_eligible_hhs_(both)'</v>
+      </c>
+      <c r="C27" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E27,"_",F27)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
+      </c>
+      <c r="E27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F27" t="s">
+        <v>564</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>739</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_pa_agreement_(both)'</v>
+      </c>
+      <c r="C28" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E28,"_",F28)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_pa_agreement_(both)</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>550</v>
+      </c>
+      <c r="F28" t="s">
+        <v>565</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>740</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_ist_tranche_received_(both)'</v>
+      </c>
+      <c r="C29" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E29,"_",F29)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_ist_tranche_received_(both)</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
+      </c>
+      <c r="E29" t="s">
+        <v>550</v>
+      </c>
+      <c r="F29" t="s">
+        <v>566</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>741</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_iind_tranche_received_(both)'</v>
+      </c>
+      <c r="C30" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E30,"_",F30)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_iind_tranche_received_(both)</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s">
+        <v>550</v>
+      </c>
+      <c r="F30" t="s">
+        <v>567</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_iiird_tranche_received'</v>
+      </c>
+      <c r="C31" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E31,"_",F31)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_iiird_tranche_received</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>550</v>
+      </c>
+      <c r="F31" t="s">
+        <v>557</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>743</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_houses_title'</v>
+      </c>
+      <c r="C32" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E32,"_",F32)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_houses_title</v>
+      </c>
+      <c r="D32">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>550</v>
+      </c>
+      <c r="F32" t="s">
+        <v>563</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>744</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_under_construction'</v>
+      </c>
+      <c r="C33" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E33,"_",F33)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_under_construction</v>
+      </c>
+      <c r="D33">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>550</v>
+      </c>
+      <c r="F33" t="s">
+        <v>559</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>745</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_completed'</v>
+      </c>
+      <c r="C34" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E34,"_",F34)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_completed</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>550</v>
+      </c>
+      <c r="F34" t="s">
+        <v>560</v>
+      </c>
+      <c r="G34" s="23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>746</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_grievances_title'</v>
+      </c>
+      <c r="C35" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E35,"_",F35)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_grievances_title</v>
+      </c>
+      <c r="D35">
+        <v>33</v>
+      </c>
+      <c r="E35" t="s">
+        <v>550</v>
+      </c>
+      <c r="F35" t="s">
+        <v>568</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>747</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_non-compliances_title'</v>
+      </c>
+      <c r="C36" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E36,"_",F36)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_non-compliances_title</v>
+      </c>
+      <c r="D36">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>550</v>
+      </c>
+      <c r="F36" t="s">
+        <v>570</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>748</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_registered_(both)'</v>
+      </c>
+      <c r="C37" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E37,"_",F37)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_registered_(both)</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>550</v>
+      </c>
+      <c r="F37" t="s">
+        <v>571</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>749</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>'recon_&amp;_retrofit_addressed_(both)'</v>
+      </c>
+      <c r="C38" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E38,"_",F38)," ","_"))))</f>
+        <v>#recon_&amp;_retrofit_addressed_(both)</v>
+      </c>
+      <c r="D38">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>550</v>
+      </c>
+      <c r="F38" t="s">
+        <v>572</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>750</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>'po_presence_pos_presence_title'</v>
+      </c>
+      <c r="C39" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E39,"_",F39)," ","_"))))</f>
+        <v>#po_presence_pos_presence_title</v>
+      </c>
+      <c r="D39">
+        <v>37</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>575</v>
+      </c>
+      <c r="G39" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>751</v>
+      </c>
+      <c r="B40" t="str">
+        <f t="shared" si="1"/>
+        <v>'po_presence_active'</v>
+      </c>
+      <c r="C40" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E40,"_",F40)," ","_"))))</f>
+        <v>#po_presence_active</v>
+      </c>
+      <c r="D40">
+        <v>38</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>576</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>752</v>
+      </c>
+      <c r="B41" t="str">
+        <f t="shared" si="1"/>
+        <v>'po_presence_phased_out'</v>
+      </c>
+      <c r="C41" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E41,"_",F41)," ","_"))))</f>
+        <v>#po_presence_phased_out</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>577</v>
+      </c>
+      <c r="G41" s="23" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>753</v>
+      </c>
+      <c r="B42" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_panel_title'</v>
+      </c>
+      <c r="C42" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E42,"_",F42)," ","_"))))</f>
+        <v>#status_of_cm_panel_title</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42" t="s">
+        <v>578</v>
+      </c>
+      <c r="F42" t="s">
+        <v>579</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>754</v>
+      </c>
+      <c r="B43" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_materials_header'</v>
+      </c>
+      <c r="C43" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E43,"_",F43)," ","_"))))</f>
+        <v>#status_of_cm_materials_header</v>
+      </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43" t="s">
+        <v>578</v>
+      </c>
+      <c r="F43" t="s">
+        <v>580</v>
+      </c>
+      <c r="G43" s="23" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>755</v>
+      </c>
+      <c r="B44" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_unit_header'</v>
+      </c>
+      <c r="C44" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E44,"_",F44)," ","_"))))</f>
+        <v>#status_of_cm_unit_header</v>
+      </c>
+      <c r="D44">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>578</v>
+      </c>
+      <c r="F44" t="s">
+        <v>581</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>756</v>
+      </c>
+      <c r="B45" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_req._quantity*_header'</v>
+      </c>
+      <c r="C45" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E45,"_",F45)," ","_"))))</f>
+        <v>#status_of_cm_req._quantity*_header</v>
+      </c>
+      <c r="D45">
+        <v>43</v>
+      </c>
+      <c r="E45" t="s">
+        <v>578</v>
+      </c>
+      <c r="F45" t="s">
+        <v>582</v>
+      </c>
+      <c r="G45" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="J45" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>757</v>
+      </c>
+      <c r="B46" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_ava._header'</v>
+      </c>
+      <c r="C46" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E46,"_",F46)," ","_"))))</f>
+        <v>#status_of_cm_ava._header</v>
+      </c>
+      <c r="D46">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>578</v>
+      </c>
+      <c r="F46" t="s">
+        <v>583</v>
+      </c>
+      <c r="G46" s="23" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>758</v>
+      </c>
+      <c r="B47" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_cost_(nrs.)**_header'</v>
+      </c>
+      <c r="C47" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E47,"_",F47)," ","_"))))</f>
+        <v>#status_of_cm_cost_(nrs.)**_header</v>
+      </c>
+      <c r="D47">
+        <v>45</v>
+      </c>
+      <c r="E47" t="s">
+        <v>578</v>
+      </c>
+      <c r="F47" t="s">
+        <v>584</v>
+      </c>
+      <c r="G47" s="23" t="s">
+        <v>589</v>
+      </c>
+      <c r="J47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>759</v>
+      </c>
+      <c r="B48" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_stone'</v>
+      </c>
+      <c r="C48" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E48,"_",F48)," ","_"))))</f>
+        <v>#status_of_cm_stone</v>
+      </c>
+      <c r="D48">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>578</v>
+      </c>
+      <c r="F48" t="s">
+        <v>590</v>
+      </c>
+      <c r="G48" s="23" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>760</v>
+      </c>
+      <c r="B49" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_aggregate'</v>
+      </c>
+      <c r="C49" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E49,"_",F49)," ","_"))))</f>
+        <v>#status_of_cm_aggregate</v>
+      </c>
+      <c r="D49">
+        <v>47</v>
+      </c>
+      <c r="E49" t="s">
+        <v>578</v>
+      </c>
+      <c r="F49" t="s">
+        <v>591</v>
+      </c>
+      <c r="G49" s="23" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>761</v>
+      </c>
+      <c r="B50" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_sand'</v>
+      </c>
+      <c r="C50" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E50,"_",F50)," ","_"))))</f>
+        <v>#status_of_cm_sand</v>
+      </c>
+      <c r="D50">
+        <v>48</v>
+      </c>
+      <c r="E50" t="s">
+        <v>578</v>
+      </c>
+      <c r="F50" t="s">
+        <v>592</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>762</v>
+      </c>
+      <c r="B51" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_timber'</v>
+      </c>
+      <c r="C51" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E51,"_",F51)," ","_"))))</f>
+        <v>#status_of_cm_timber</v>
+      </c>
+      <c r="D51">
+        <v>49</v>
+      </c>
+      <c r="E51" t="s">
+        <v>578</v>
+      </c>
+      <c r="F51" t="s">
+        <v>593</v>
+      </c>
+      <c r="G51" s="23" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>763</v>
+      </c>
+      <c r="B52" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_cement_(ppc)'</v>
+      </c>
+      <c r="C52" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E52,"_",F52)," ","_"))))</f>
+        <v>#status_of_cm_cement_(ppc)</v>
+      </c>
+      <c r="D52">
+        <v>50</v>
+      </c>
+      <c r="E52" t="s">
+        <v>578</v>
+      </c>
+      <c r="F52" t="s">
+        <v>594</v>
+      </c>
+      <c r="G52" s="23" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>764</v>
+      </c>
+      <c r="B53" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_cement_(opc)'</v>
+      </c>
+      <c r="C53" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E53,"_",F53)," ","_"))))</f>
+        <v>#status_of_cm_cement_(opc)</v>
+      </c>
+      <c r="D53">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>578</v>
+      </c>
+      <c r="F53" t="s">
+        <v>595</v>
+      </c>
+      <c r="G53" s="23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>765</v>
+      </c>
+      <c r="B54" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_rebars'</v>
+      </c>
+      <c r="C54" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E54,"_",F54)," ","_"))))</f>
+        <v>#status_of_cm_rebars</v>
+      </c>
+      <c r="D54">
+        <v>52</v>
+      </c>
+      <c r="E54" t="s">
+        <v>578</v>
+      </c>
+      <c r="F54" t="s">
+        <v>596</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>766</v>
+      </c>
+      <c r="B55" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_tin'</v>
+      </c>
+      <c r="C55" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E55,"_",F55)," ","_"))))</f>
+        <v>#status_of_cm_tin</v>
+      </c>
+      <c r="D55">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>578</v>
+      </c>
+      <c r="F55" t="s">
+        <v>597</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>767</v>
+      </c>
+      <c r="B56" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_bricks'</v>
+      </c>
+      <c r="C56" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E56,"_",F56)," ","_"))))</f>
+        <v>#status_of_cm_bricks</v>
+      </c>
+      <c r="D56">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>578</v>
+      </c>
+      <c r="F56" t="s">
+        <v>598</v>
+      </c>
+      <c r="G56" s="23" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>768</v>
+      </c>
+      <c r="B57" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_cubic_metre_measurement'</v>
+      </c>
+      <c r="C57" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E57,"_",F57)," ","_"))))</f>
+        <v>#status_of_cm_cubic_metre_measurement</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57" t="s">
+        <v>578</v>
+      </c>
+      <c r="F57" t="s">
+        <v>599</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="J57" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>769</v>
+      </c>
+      <c r="B58" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_cubic_feet_measurement'</v>
+      </c>
+      <c r="C58" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E58,"_",F58)," ","_"))))</f>
+        <v>#status_of_cm_cubic_feet_measurement</v>
+      </c>
+      <c r="D58">
+        <v>56</v>
+      </c>
+      <c r="E58" t="s">
+        <v>578</v>
+      </c>
+      <c r="F58" t="s">
+        <v>601</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>770</v>
+      </c>
+      <c r="B59" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_sack_measurement'</v>
+      </c>
+      <c r="C59" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E59,"_",F59)," ","_"))))</f>
+        <v>#status_of_cm_sack_measurement</v>
+      </c>
+      <c r="D59">
+        <v>57</v>
+      </c>
+      <c r="E59" t="s">
+        <v>578</v>
+      </c>
+      <c r="F59" t="s">
+        <v>603</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>771</v>
+      </c>
+      <c r="B60" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_kg_plural_measurement'</v>
+      </c>
+      <c r="C60" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E60,"_",F60)," ","_"))))</f>
+        <v>#status_of_cm_kg_plural_measurement</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>578</v>
+      </c>
+      <c r="F60" t="s">
+        <v>605</v>
+      </c>
+      <c r="G60" s="23" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>772</v>
+      </c>
+      <c r="B61" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_bundle_measurement'</v>
+      </c>
+      <c r="C61" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E61,"_",F61)," ","_"))))</f>
+        <v>#status_of_cm_bundle_measurement</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>578</v>
+      </c>
+      <c r="F61" t="s">
+        <v>607</v>
+      </c>
+      <c r="G61" s="23" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>773</v>
+      </c>
+      <c r="B62" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_pieces_measurement'</v>
+      </c>
+      <c r="C62" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E62,"_",F62)," ","_"))))</f>
+        <v>#status_of_cm_pieces_measurement</v>
+      </c>
+      <c r="D62">
+        <v>60</v>
+      </c>
+      <c r="E62" t="s">
+        <v>578</v>
+      </c>
+      <c r="F62" t="s">
+        <v>609</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>774</v>
+      </c>
+      <c r="B63" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_types_of_workers'</v>
+      </c>
+      <c r="C63" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E63,"_",F63)," ","_"))))</f>
+        <v>#status_of_cm_types_of_workers</v>
+      </c>
+      <c r="D63">
+        <v>61</v>
+      </c>
+      <c r="E63" t="s">
+        <v>578</v>
+      </c>
+      <c r="F63" t="s">
+        <v>615</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>775</v>
+      </c>
+      <c r="B64" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_avg._daily_wage_(nrs.)'</v>
+      </c>
+      <c r="C64" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E64,"_",F64)," ","_"))))</f>
+        <v>#status_of_cm_avg._daily_wage_(nrs.)</v>
+      </c>
+      <c r="D64">
+        <v>62</v>
+      </c>
+      <c r="E64" t="s">
+        <v>578</v>
+      </c>
+      <c r="F64" t="s">
+        <v>616</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>776</v>
+      </c>
+      <c r="B65" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_skilled_mason'</v>
+      </c>
+      <c r="C65" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E65,"_",F65)," ","_"))))</f>
+        <v>#status_of_cm_skilled_mason</v>
+      </c>
+      <c r="D65">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>578</v>
+      </c>
+      <c r="F65" t="s">
+        <v>613</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>777</v>
+      </c>
+      <c r="B66" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_labourer'</v>
+      </c>
+      <c r="C66" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E66,"_",F66)," ","_"))))</f>
+        <v>#status_of_cm_labourer</v>
+      </c>
+      <c r="D66">
+        <v>64</v>
+      </c>
+      <c r="E66" t="s">
+        <v>578</v>
+      </c>
+      <c r="F66" t="s">
+        <v>614</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>778</v>
+      </c>
+      <c r="B67" t="str">
+        <f t="shared" si="1"/>
+        <v>'status_of_cm_footer'</v>
+      </c>
+      <c r="C67" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E67,"_",F67)," ","_"))))</f>
+        <v>#status_of_cm_footer</v>
+      </c>
+      <c r="D67">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>578</v>
+      </c>
+      <c r="F67" t="s">
+        <v>618</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="I67" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>779</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B111" si="2">SUBSTITUTE(A68,"""","'")</f>
+        <v>'status_of_cm_list_1'</v>
+      </c>
+      <c r="C68" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E68,"_",F68)," ","_"))))</f>
+        <v>#status_of_cm_list_1</v>
+      </c>
+      <c r="D68">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>578</v>
+      </c>
+      <c r="F68" t="s">
+        <v>645</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>780</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="2"/>
+        <v>'status_of_cm_list_2'</v>
+      </c>
+      <c r="C69" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E69,"_",F69)," ","_"))))</f>
+        <v>#status_of_cm_list_2</v>
+      </c>
+      <c r="D69">
+        <v>67</v>
+      </c>
+      <c r="E69" t="s">
+        <v>578</v>
+      </c>
+      <c r="F69" t="s">
+        <v>646</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>781</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_panel_title'</v>
+      </c>
+      <c r="C70" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E70,"_",F70)," ","_"))))</f>
+        <v>#other_sectors_panel_title</v>
+      </c>
+      <c r="D70">
+        <v>68</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>579</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>782</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_schools_title'</v>
+      </c>
+      <c r="C71" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E71,"_",F71)," ","_"))))</f>
+        <v>#other_sectors_schools_title</v>
+      </c>
+      <c r="D71">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>620</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>783</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_health_posts_title'</v>
+      </c>
+      <c r="C72" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E72,"_",F72)," ","_"))))</f>
+        <v>#other_sectors_health_posts_title</v>
+      </c>
+      <c r="D72">
+        <v>70</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>621</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>784</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_damaged'</v>
+      </c>
+      <c r="C73" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E73,"_",F73)," ","_"))))</f>
+        <v>#other_sectors_damaged</v>
+      </c>
+      <c r="D73">
+        <v>71</v>
+      </c>
+      <c r="E73" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" t="s">
+        <v>622</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>785</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_under-construction'</v>
+      </c>
+      <c r="C74" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E74,"_",F74)," ","_"))))</f>
+        <v>#other_sectors_under-construction</v>
+      </c>
+      <c r="D74">
+        <v>72</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" t="s">
+        <v>623</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>786</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="2"/>
+        <v>'other_sectors_const._completed'</v>
+      </c>
+      <c r="C75" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E75,"_",F75)," ","_"))))</f>
+        <v>#other_sectors_const._completed</v>
+      </c>
+      <c r="D75">
+        <v>73</v>
+      </c>
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" t="s">
+        <v>624</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>787</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_panel_title'</v>
+      </c>
+      <c r="C76" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E76,"_",F76)," ","_"))))</f>
+        <v>#key_contacts_panel_title</v>
+      </c>
+      <c r="D76">
+        <v>74</v>
+      </c>
+      <c r="E76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" t="s">
+        <v>579</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>788</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_palika_coordinator_title'</v>
+      </c>
+      <c r="C77" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E77,"_",F77)," ","_"))))</f>
+        <v>#key_contacts_palika_coordinator_title</v>
+      </c>
+      <c r="D77">
+        <v>75</v>
+      </c>
+      <c r="E77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" t="s">
+        <v>628</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>789</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_municipal_office_title'</v>
+      </c>
+      <c r="C78" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E78,"_",F78)," ","_"))))</f>
+        <v>#key_contacts_municipal_office_title</v>
+      </c>
+      <c r="D78">
+        <v>76</v>
+      </c>
+      <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" t="s">
+        <v>629</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>790</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_gmali/nra_title'</v>
+      </c>
+      <c r="C79" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E79,"_",F79)," ","_"))))</f>
+        <v>#key_contacts_gmali/nra_title</v>
+      </c>
+      <c r="D79">
+        <v>77</v>
+      </c>
+      <c r="E79" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" t="s">
+        <v>630</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>791</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_dlpiu-building_title'</v>
+      </c>
+      <c r="C80" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E80,"_",F80)," ","_"))))</f>
+        <v>#key_contacts_dlpiu-building_title</v>
+      </c>
+      <c r="D80">
+        <v>78</v>
+      </c>
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" t="s">
+        <v>631</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>792</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="2"/>
+        <v>'key_contacts_contact'</v>
+      </c>
+      <c r="C81" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E81,"_",F81)," ","_"))))</f>
+        <v>#key_contacts_contact</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" t="s">
+        <v>632</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>793</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_panel_title'</v>
+      </c>
+      <c r="C82" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E82,"_",F82)," ","_"))))</f>
+        <v>#land_issues_panel_title</v>
+      </c>
+      <c r="D82">
+        <v>80</v>
+      </c>
+      <c r="E82" t="s">
+        <v>660</v>
+      </c>
+      <c r="F82" t="s">
+        <v>579</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>794</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_landless'</v>
+      </c>
+      <c r="C83" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E83,"_",F83)," ","_"))))</f>
+        <v>#land_issues_landless</v>
+      </c>
+      <c r="D83">
+        <v>81</v>
+      </c>
+      <c r="E83" t="s">
+        <v>660</v>
+      </c>
+      <c r="F83" t="s">
+        <v>663</v>
+      </c>
+      <c r="G83" s="23" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>795</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_no_land_certificates'</v>
+      </c>
+      <c r="C84" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E84,"_",F84)," ","_"))))</f>
+        <v>#land_issues_no_land_certificates</v>
+      </c>
+      <c r="D84">
+        <v>82</v>
+      </c>
+      <c r="E84" t="s">
+        <v>660</v>
+      </c>
+      <c r="F84" t="s">
+        <v>664</v>
+      </c>
+      <c r="G84" s="23" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>796</v>
+      </c>
+      <c r="B85" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_right_of_way'</v>
+      </c>
+      <c r="C85" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E85,"_",F85)," ","_"))))</f>
+        <v>#land_issues_right_of_way</v>
+      </c>
+      <c r="D85">
+        <v>83</v>
+      </c>
+      <c r="E85" t="s">
+        <v>660</v>
+      </c>
+      <c r="F85" t="s">
+        <v>665</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>797</v>
+      </c>
+      <c r="B86" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_affected_by_hep_'</v>
+      </c>
+      <c r="C86" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E86,"_",F86)," ","_"))))</f>
+        <v>#land_issues_affected_by_hep_</v>
+      </c>
+      <c r="D86">
+        <v>84</v>
+      </c>
+      <c r="E86" t="s">
+        <v>660</v>
+      </c>
+      <c r="F86" t="s">
+        <v>666</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>798</v>
+      </c>
+      <c r="B87" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_small_plots'</v>
+      </c>
+      <c r="C87" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E87,"_",F87)," ","_"))))</f>
+        <v>#land_issues_small_plots</v>
+      </c>
+      <c r="D87">
+        <v>85</v>
+      </c>
+      <c r="E87" t="s">
+        <v>660</v>
+      </c>
+      <c r="F87" t="s">
+        <v>667</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>799</v>
+      </c>
+      <c r="B88" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_guthi_land'</v>
+      </c>
+      <c r="C88" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E88,"_",F88)," ","_"))))</f>
+        <v>#land_issues_guthi_land</v>
+      </c>
+      <c r="D88">
+        <v>86</v>
+      </c>
+      <c r="E88" t="s">
+        <v>660</v>
+      </c>
+      <c r="F88" t="s">
+        <v>668</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>800</v>
+      </c>
+      <c r="B89" t="str">
+        <f t="shared" si="2"/>
+        <v>'land_issues_no_information'</v>
+      </c>
+      <c r="C89" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E89,"_",F89)," ","_"))))</f>
+        <v>#land_issues_no_information</v>
+      </c>
+      <c r="D89">
+        <v>87</v>
+      </c>
+      <c r="E89" t="s">
+        <v>660</v>
+      </c>
+      <c r="F89" t="s">
+        <v>669</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>801</v>
+      </c>
+      <c r="B90" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_panel_title'</v>
+      </c>
+      <c r="C90" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E90,"_",F90)," ","_"))))</f>
+        <v>#tech_staff_panel_title</v>
+      </c>
+      <c r="D90">
+        <v>88</v>
+      </c>
+      <c r="E90" t="s">
+        <v>670</v>
+      </c>
+      <c r="F90" t="s">
+        <v>579</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>802</v>
+      </c>
+      <c r="B91" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_staff_title'</v>
+      </c>
+      <c r="C91" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E91,"_",F91)," ","_"))))</f>
+        <v>#tech_staff_staff_title</v>
+      </c>
+      <c r="D91">
+        <v>89</v>
+      </c>
+      <c r="E91" t="s">
+        <v>670</v>
+      </c>
+      <c r="F91" t="s">
+        <v>672</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>803</v>
+      </c>
+      <c r="B92" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_available_title'</v>
+      </c>
+      <c r="C92" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E92,"_",F92)," ","_"))))</f>
+        <v>#tech_staff_available_title</v>
+      </c>
+      <c r="D92">
+        <v>90</v>
+      </c>
+      <c r="E92" t="s">
+        <v>670</v>
+      </c>
+      <c r="F92" t="s">
+        <v>673</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>804</v>
+      </c>
+      <c r="B93" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_addl_req_title'</v>
+      </c>
+      <c r="C93" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E93,"_",F93)," ","_"))))</f>
+        <v>#tech_staff_addl_req_title</v>
+      </c>
+      <c r="D93">
+        <v>91</v>
+      </c>
+      <c r="E93" t="s">
+        <v>670</v>
+      </c>
+      <c r="F93" t="s">
+        <v>674</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>805</v>
+      </c>
+      <c r="B94" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_engineers'</v>
+      </c>
+      <c r="C94" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E94,"_",F94)," ","_"))))</f>
+        <v>#tech_staff_engineers</v>
+      </c>
+      <c r="D94">
+        <v>92</v>
+      </c>
+      <c r="E94" t="s">
+        <v>670</v>
+      </c>
+      <c r="F94" t="s">
+        <v>676</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>806</v>
+      </c>
+      <c r="B95" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_sub-engineers'</v>
+      </c>
+      <c r="C95" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E95,"_",F95)," ","_"))))</f>
+        <v>#tech_staff_sub-engineers</v>
+      </c>
+      <c r="D95">
+        <v>93</v>
+      </c>
+      <c r="E95" t="s">
+        <v>670</v>
+      </c>
+      <c r="F95" t="s">
+        <v>677</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>807</v>
+      </c>
+      <c r="B96" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_asst._sub-engineers'</v>
+      </c>
+      <c r="C96" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E96,"_",F96)," ","_"))))</f>
+        <v>#tech_staff_asst._sub-engineers</v>
+      </c>
+      <c r="D96">
+        <v>94</v>
+      </c>
+      <c r="E96" t="s">
+        <v>670</v>
+      </c>
+      <c r="F96" t="s">
+        <v>678</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>808</v>
+      </c>
+      <c r="B97" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_masons'</v>
+      </c>
+      <c r="C97" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E97,"_",F97)," ","_"))))</f>
+        <v>#tech_staff_masons</v>
+      </c>
+      <c r="D97">
+        <v>95</v>
+      </c>
+      <c r="E97" t="s">
+        <v>670</v>
+      </c>
+      <c r="F97" t="s">
+        <v>675</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>809</v>
+      </c>
+      <c r="B98" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_days'</v>
+      </c>
+      <c r="C98" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E98,"_",F98)," ","_"))))</f>
+        <v>#tech_staff_days</v>
+      </c>
+      <c r="D98">
+        <v>96</v>
+      </c>
+      <c r="E98" t="s">
+        <v>670</v>
+      </c>
+      <c r="F98" t="s">
+        <v>679</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>810</v>
+      </c>
+      <c r="B99" t="str">
+        <f t="shared" si="2"/>
+        <v>'tech_staff_footer'</v>
+      </c>
+      <c r="C99" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E99,"_",F99)," ","_"))))</f>
+        <v>#tech_staff_footer</v>
+      </c>
+      <c r="D99">
+        <v>97</v>
+      </c>
+      <c r="E99" t="s">
+        <v>670</v>
+      </c>
+      <c r="F99" t="s">
+        <v>618</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>811</v>
+      </c>
+      <c r="B100" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_panel_title'</v>
+      </c>
+      <c r="C100" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E100,"_",F100)," ","_"))))</f>
+        <v>#training_panel_title</v>
+      </c>
+      <c r="D100">
+        <v>98</v>
+      </c>
+      <c r="E100" t="s">
+        <v>684</v>
+      </c>
+      <c r="F100" t="s">
+        <v>579</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>812</v>
+      </c>
+      <c r="B101" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_sub_title'</v>
+      </c>
+      <c r="C101" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E101,"_",F101)," ","_"))))</f>
+        <v>#training_sub_title</v>
+      </c>
+      <c r="D101">
+        <v>99</v>
+      </c>
+      <c r="E101" t="s">
+        <v>684</v>
+      </c>
+      <c r="F101" t="s">
+        <v>686</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>813</v>
+      </c>
+      <c r="B102" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_short_training'</v>
+      </c>
+      <c r="C102" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E102,"_",F102)," ","_"))))</f>
+        <v>#training_short_training</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102" t="s">
+        <v>684</v>
+      </c>
+      <c r="F102" t="s">
+        <v>688</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>814</v>
+      </c>
+      <c r="B103" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_vocational_training'</v>
+      </c>
+      <c r="C103" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E103,"_",F103)," ","_"))))</f>
+        <v>#training_vocational_training</v>
+      </c>
+      <c r="D103">
+        <v>101</v>
+      </c>
+      <c r="E103" t="s">
+        <v>684</v>
+      </c>
+      <c r="F103" t="s">
+        <v>689</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>815</v>
+      </c>
+      <c r="B104" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_reached'</v>
+      </c>
+      <c r="C104" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E104,"_",F104)," ","_"))))</f>
+        <v>#training_reached</v>
+      </c>
+      <c r="D104">
+        <v>102</v>
+      </c>
+      <c r="E104" t="s">
+        <v>684</v>
+      </c>
+      <c r="F104" t="s">
+        <v>690</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>816</v>
+      </c>
+      <c r="B105" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_remaining'</v>
+      </c>
+      <c r="C105" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E105,"_",F105)," ","_"))))</f>
+        <v>#training_remaining</v>
+      </c>
+      <c r="D105">
+        <v>103</v>
+      </c>
+      <c r="E105" t="s">
+        <v>684</v>
+      </c>
+      <c r="F105" t="s">
+        <v>691</v>
+      </c>
+      <c r="G105" s="23" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>817</v>
+      </c>
+      <c r="B106" t="str">
+        <f t="shared" si="2"/>
+        <v>'training_footer'</v>
+      </c>
+      <c r="C106" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E106,"_",F106)," ","_"))))</f>
+        <v>#training_footer</v>
+      </c>
+      <c r="D106">
+        <v>104</v>
+      </c>
+      <c r="E106" t="s">
+        <v>684</v>
+      </c>
+      <c r="F106" t="s">
+        <v>618</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>818</v>
+      </c>
+      <c r="B107" t="str">
+        <f t="shared" si="2"/>
+        <v>'map_panel_title'</v>
+      </c>
+      <c r="C107" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E107,"_",F107)," ","_"))))</f>
+        <v>#map_panel_title</v>
+      </c>
+      <c r="D107">
+        <v>105</v>
+      </c>
+      <c r="E107" t="s">
+        <v>694</v>
+      </c>
+      <c r="F107" t="s">
+        <v>579</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>819</v>
+      </c>
+      <c r="B108" t="str">
+        <f t="shared" si="2"/>
+        <v>'map_footer'</v>
+      </c>
+      <c r="C108" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E108,"_",F108)," ","_"))))</f>
+        <v>#map_footer</v>
+      </c>
+      <c r="D108">
+        <v>106</v>
+      </c>
+      <c r="E108" t="s">
+        <v>694</v>
+      </c>
+      <c r="F108" t="s">
+        <v>618</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>820</v>
+      </c>
+      <c r="B109" t="str">
+        <f t="shared" si="2"/>
+        <v>'faq_panel_title'</v>
+      </c>
+      <c r="C109" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E109,"_",F109)," ","_"))))</f>
+        <v>#faq_panel_title</v>
+      </c>
+      <c r="D109">
+        <v>107</v>
+      </c>
+      <c r="E109" t="s">
+        <v>74</v>
+      </c>
+      <c r="F109" t="s">
+        <v>579</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>821</v>
+      </c>
+      <c r="B110" t="str">
+        <f t="shared" si="2"/>
+        <v>'faq_q'</v>
+      </c>
+      <c r="C110" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E110,"_",F110)," ","_"))))</f>
+        <v>#faq_q</v>
+      </c>
+      <c r="D110">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" t="s">
+        <v>698</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>822</v>
+      </c>
+      <c r="B111" t="str">
+        <f t="shared" si="2"/>
+        <v>'faq_a'</v>
+      </c>
+      <c r="C111" t="str">
+        <f>CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(E111,"_",F111)," ","_"))))</f>
+        <v>#faq_a</v>
+      </c>
+      <c r="D111">
+        <v>109</v>
+      </c>
+      <c r="E111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" t="s">
+        <v>699</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -7230,7 +10887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7386,115 +11045,115 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AJ2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.2">
@@ -8022,7 +11681,7 @@
   <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8035,27 +11694,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" t="s">
         <v>392</v>
       </c>
-      <c r="B1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>393</v>
-      </c>
-      <c r="D1" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D2" t="str">
         <f>CONCATENATE("",(LOWER(SUBSTITUTE(C2," ","_"))))</f>
@@ -8064,13 +11723,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D66" si="0">CONCATENATE("",(LOWER(SUBSTITUTE(C3," ","_"))))</f>
@@ -8079,13 +11738,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -8094,13 +11753,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -8109,13 +11768,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -8124,13 +11783,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -8139,265 +11798,265 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -8406,13 +12065,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -8421,13 +12080,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -8436,13 +12095,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -8451,13 +12110,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
@@ -8466,13 +12125,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -8481,13 +12140,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -8496,13 +12155,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -8511,13 +12170,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -8526,13 +12185,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -8541,13 +12200,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="str">
         <f t="shared" si="0"/>
@@ -8556,13 +12215,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
@@ -8571,13 +12230,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -8586,13 +12245,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -8601,13 +12260,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
@@ -8616,13 +12275,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" t="str">
         <f t="shared" si="0"/>
@@ -8631,13 +12290,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -8646,13 +12305,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -8661,13 +12320,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
@@ -8676,13 +12335,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -8691,13 +12350,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="0"/>
@@ -8706,13 +12365,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D47" t="str">
         <f t="shared" si="0"/>
@@ -8721,13 +12380,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -8736,13 +12395,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -8751,13 +12410,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
@@ -8766,13 +12425,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -8781,13 +12440,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -8796,13 +12455,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -8811,13 +12470,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -8826,13 +12485,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -8841,13 +12500,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -8856,13 +12515,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -8871,13 +12530,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -8886,13 +12545,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -8901,13 +12560,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
@@ -8916,13 +12575,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
@@ -8931,13 +12590,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -8946,13 +12605,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -8961,13 +12620,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B64" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -8976,13 +12635,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B65" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -8991,13 +12650,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D66" t="str">
         <f t="shared" si="0"/>
@@ -9006,13 +12665,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B67" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D67" t="str">
         <f t="shared" ref="D67:D128" si="1">CONCATENATE("",(LOWER(SUBSTITUTE(C67," ","_"))))</f>
@@ -9021,13 +12680,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
@@ -9036,13 +12695,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
@@ -9051,13 +12710,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
@@ -9066,13 +12725,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
@@ -9081,13 +12740,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -9096,13 +12755,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -9111,13 +12770,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -9126,13 +12785,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B75" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -9141,13 +12800,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -9156,13 +12815,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -9171,13 +12830,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -9186,13 +12845,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -9201,13 +12860,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B80" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -9216,13 +12875,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B81" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -9231,13 +12890,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B82" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -9246,13 +12905,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B83" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -9261,13 +12920,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C84" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
@@ -9276,13 +12935,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B85" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C85" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
@@ -9291,13 +12950,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
@@ -9306,13 +12965,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
@@ -9321,13 +12980,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
@@ -9336,13 +12995,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
@@ -9351,13 +13010,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C90" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
@@ -9366,13 +13025,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
@@ -9381,13 +13040,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B92" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
@@ -9396,13 +13055,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B93" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
@@ -9411,13 +13070,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B94" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
@@ -9426,13 +13085,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B95" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C95" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
@@ -9441,13 +13100,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B96" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
@@ -9456,13 +13115,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B97" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
@@ -9471,13 +13130,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B98" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
@@ -9486,13 +13145,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B99" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
@@ -9501,13 +13160,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B100" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
@@ -9516,13 +13175,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B101" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C101" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
@@ -9531,13 +13190,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D102" t="str">
         <f t="shared" si="1"/>
@@ -9546,13 +13205,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C103" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D103" t="str">
         <f t="shared" si="1"/>
@@ -9561,13 +13220,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C104" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D104" t="str">
         <f t="shared" si="1"/>
@@ -9576,13 +13235,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B105" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C105" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D105" t="str">
         <f t="shared" si="1"/>
@@ -9591,13 +13250,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B106" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" t="str">
         <f t="shared" si="1"/>
@@ -9606,13 +13265,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B107" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" t="str">
         <f t="shared" si="1"/>
@@ -9621,13 +13280,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" t="str">
         <f t="shared" si="1"/>
@@ -9636,13 +13295,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B109" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D109" t="str">
         <f t="shared" si="1"/>
@@ -9651,13 +13310,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B110" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" t="str">
         <f t="shared" si="1"/>
@@ -9666,13 +13325,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B111" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D111" t="str">
         <f t="shared" si="1"/>
@@ -9681,13 +13340,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B112" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D112" t="str">
         <f t="shared" si="1"/>
@@ -9696,13 +13355,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B113" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" t="str">
         <f t="shared" si="1"/>
@@ -9711,13 +13370,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B114" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" t="str">
         <f t="shared" si="1"/>
@@ -9726,13 +13385,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B115" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D115" t="str">
         <f t="shared" si="1"/>
@@ -9741,13 +13400,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B116" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D116" t="str">
         <f t="shared" si="1"/>
@@ -9756,13 +13415,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B117" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D117" t="str">
         <f t="shared" si="1"/>
@@ -9771,13 +13430,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B118" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D118" t="str">
         <f t="shared" si="1"/>
@@ -9786,13 +13445,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B119" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" t="str">
         <f t="shared" si="1"/>
@@ -9801,13 +13460,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B120" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D120" t="str">
         <f t="shared" si="1"/>
@@ -9816,13 +13475,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C121" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D121" t="str">
         <f t="shared" si="1"/>
@@ -9831,13 +13490,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D122" t="str">
         <f t="shared" si="1"/>
@@ -9846,13 +13505,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B123" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C123" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D123" t="str">
         <f t="shared" si="1"/>
@@ -9861,13 +13520,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B124" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C124" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D124" t="str">
         <f t="shared" si="1"/>
@@ -9876,13 +13535,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C125" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D125" t="str">
         <f t="shared" si="1"/>
@@ -9891,13 +13550,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B126" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C126" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" t="str">
         <f t="shared" si="1"/>
@@ -9906,13 +13565,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B127" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D127" t="str">
         <f t="shared" si="1"/>
@@ -9921,13 +13580,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B128" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C128" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" t="str">
         <f t="shared" si="1"/>
@@ -9945,7 +13604,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9955,24 +13614,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
         <v>533</v>
-      </c>
-      <c r="B1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>531</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>532</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2018</v>
@@ -9980,15 +13639,15 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -10014,24 +13673,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C1" t="s">
         <v>535</v>
-      </c>
-      <c r="C1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -10039,10 +13698,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -10050,10 +13709,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -10061,10 +13720,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>

--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="Meta" sheetId="1" r:id="rId4"/>
     <sheet name="FAQs" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Titles!$A$1:$I$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Titles!$A$1:$I$125</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="515">
   <si>
     <t>Facts and Figures</t>
   </si>
@@ -711,15 +714,9 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>#item</t>
   </si>
   <si>
-    <t>#value</t>
-  </si>
-  <si>
     <t>#question</t>
   </si>
   <si>
@@ -1461,9 +1458,6 @@
     <t>Construction Completed</t>
   </si>
   <si>
-    <t>“““</t>
-  </si>
-  <si>
     <t xml:space="preserve">Focal Person </t>
   </si>
   <si>
@@ -1549,13 +1543,49 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>Affected by HEP</t>
+  </si>
+  <si>
+    <t>reached</t>
+  </si>
+  <si>
+    <t>#value_en</t>
+  </si>
+  <si>
+    <t>Value_en</t>
+  </si>
+  <si>
+    <t>Value_np</t>
+  </si>
+  <si>
+    <t>#value_np</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1599,6 +1629,11 @@
       <color rgb="FF008080"/>
       <name val="Menlo"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Preeti"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1623,7 +1658,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1831,8 +1866,90 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1893,8 +2010,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1998,6 +2116,47 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2101,6 +2260,47 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2111,6 +2311,1024 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Profile Data"/>
+      <sheetName val="Titles"/>
+      <sheetName val="Map Data"/>
+      <sheetName val="Meta"/>
+      <sheetName val="FAQs"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>#code</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>#nepali</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Code</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>Nepali</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>#header_title</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>पालिका प्रोफाइल</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>#header_municipality</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>नगरपालिका</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>#page_1_sources_footer</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>श्रोतहरूः _x000D_१. तथ्यांक २०११ _x000D_२. राष्ट्रिय पुनर्निर्माण प्राधिकरण सिबिएस _x000D_३. एनआरए फाईव डब्ल्यु _x000D_४. एनआरए\मोफाल्ड \एमओयुडि</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>#page_1_no_info_footer</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v xml:space="preserve">* नोटः "-" भन्नाले यस सम्बन्धमा जानकारी उपलब्ध छैन भन्ने बुझिन्छ </v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>#page_2_futher_information</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>थप जानकारीका लागि</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>#page_2_info_1</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>!</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>#page_2_info_2</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>@</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>#social_connect</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>हामीलाई सम्पर्क गर्नुहोस्</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>#social_fb</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>एचआरआरपि नेपाल</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>#social_twitter</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>#social_pinterest?</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>#social_flickr</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>#facts_and_figures_panel_title</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>तथ्यहरू र चित्रहरू</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>#facts_and_figures_damage_grade_(1-2)</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>क्षतिको स्तर (१-२)</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>#facts_and_figures_damage_grade_(3-5)</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>क्षतिको स्तर (३-५)</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>#facts_and_figures_total</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>कूल</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>#facts_and_figures_status</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>क्षति स्थिति - निजी संरचना</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>#typologies_panel_title</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>घरहरूका प्रमुख प्रकार</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>#typologies_typology</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>प्रकार</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>#typologies_municipal</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>पालिका</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>#typologies_district</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>जिल्ला</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>#typologies_source</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>(जनगणना २०११)१</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>#typologies_stone_and_cement_mortar_masonry_row_title</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>ढुंगा र सिमेन्टको गारो</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>#typologies_stone_and_mud_mortar_masonry_row_title</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>ढुंगा र माटोको गारो</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>#typologies_brick_and_cement_mortar_masonry_row_title</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>ईट्टा र सिमेन्टको गारो</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>#typologies_brick_and_mud_mortar_masonry_row_title</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>ईट्टा र माटोको गारो</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>#typologies_reinforced_cement_concrete_(rcc)_frame_row_title</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>आरसिसि फ्रेम</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>#typologies_hybrid_structure_row_title</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>मिश्रित संरचना</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>#typologies_timber_frame_structure_row_title</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>काठको संरचना</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>#typologies_hollow_concrete_block_masonry_row_title</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>हलो कंक्रिट ब्लकको गारो</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>#typologies_dry_stone_masonry_row_title</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>ढूंगाको गारो</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>#typologies_adobe_structures_row_title</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>एडोब  संरचना</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>#typologies_bamboo_row_title</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>बाँस</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>#typologies_compressed_stabilized_earth_block_(sceb)_masonry_row_title</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>सिएसइबि ब्लकको गारो</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>#typologies_light_steel_frame_structures_row_title</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>स्टिलको संरचना</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>#recon_&amp;_retrofit_panel_title</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>आवासीय पुनर्निर्माण तथा प्रबलीकरण सम्बन्धि अध्यावधिक जानकारी</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>#recon_&amp;_retrofit_reconstruction_status_title</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>पुनर्निर्माणको स्थिति</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>#recon_&amp;_retrofit_retrofitting_status_title</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>प्रबलीकरणको स्थिति</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>#recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>कूल योग्य घरधूरी</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>#recon_&amp;_retrofit_pa_agreement_(both)</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v xml:space="preserve">अनुदान सम्झौता </v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>#recon_&amp;_retrofit_ist_tranche_received_(both)</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>पहिलो किस्ता</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>#recon_&amp;_retrofit_iind_tranche_received_(both)</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>दोश्रो किस्ता</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>#recon_&amp;_retrofit_iiird_tranche_received</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>तेश्रो किस्ता</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>#recon_&amp;_retrofit_houses_title</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>घरहरू</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>#recon_&amp;_retrofit_under_construction</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>निर्माणाधीन</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>#recon_&amp;_retrofit_completed</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>निर्माण सम्पन्न</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>#recon_&amp;_retrofit_grievances_title</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>गुनासाहरू</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>#recon_&amp;_retrofit_non-compliances_title</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>मापदण्ड विपरितको टायल</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>#recon_&amp;_retrofit_registered_(both)</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>दर्ता गरिएका</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>#recon_&amp;_retrofit_addressed_(both)</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>सम्बोधन गरिएका</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>#po_presence_pos_presence_title</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>साझेदार संस्थाको उपस्थिति</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>#po_presence_active</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>क्रियाशील</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>#po_presence_phased_out</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>परियोजना सम्पन्न भएको</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>#status_of_cm_panel_title</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>निर्माण सामाग्रीको अवस्था</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>#status_of_cm_materials_header</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>सामाग्री</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>#status_of_cm_unit_header</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>ईकाई</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>#status_of_cm_req._quantity*_header</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>आवश्यक मात्रा</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>#status_of_cm_ava._header</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>उपलब्ध</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>#status_of_cm_cost_(nrs.)**_header</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>लागत (नेरू)</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>#status_of_cm_stone</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>ढुंगा</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>#status_of_cm_aggregate</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>गिट्टी</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>#status_of_cm_sand</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>बालुवा</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>#status_of_cm_timber</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>काठ</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>#status_of_cm_cement_(ppc)</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>सिमेन्ट (पिपिसि)</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>#status_of_cm_cement_(opc)</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>सिमेन्ट (ओपिसि)</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>#status_of_cm_rebars</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v xml:space="preserve">छड </v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>#status_of_cm_tin</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>जस्ता</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>#status_of_cm_bricks</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>ईट्टा</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>#status_of_cm_cubic_metre_measurement</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>मि ३</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>#status_of_cm_cubic_feet_measurement</v>
+          </cell>
+          <cell r="G72" t="str">
+            <v>क्युबिक फिट</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>#status_of_cm_sack_measurement</v>
+          </cell>
+          <cell r="G73" t="str">
+            <v>बोरा</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>#status_of_cm_kg_plural_measurement</v>
+          </cell>
+          <cell r="G74" t="str">
+            <v>केजी</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>#status_of_cm_bundle_measurement</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v>बण्डल</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>#status_of_cm_pieces_measurement</v>
+          </cell>
+          <cell r="G76" t="str">
+            <v>थान</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>#status_of_cm_types_of_workers</v>
+          </cell>
+          <cell r="G77" t="str">
+            <v>कामदारको प्रकार</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>#status_of_cm_avg._daily_wage_(nrs.)</v>
+          </cell>
+          <cell r="G78" t="str">
+            <v>औसत दैनिक ज्याला (नेरू.) शिर्षक</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>#status_of_cm_skilled_mason</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v>तालिमप्राप्त डकर्मी</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>#status_of_cm_labourer</v>
+          </cell>
+          <cell r="G80" t="str">
+            <v>श्रमिक</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>#status_of_cm_footer</v>
+          </cell>
+          <cell r="G81" t="str">
+            <v xml:space="preserve">ए भी ए भन्नाले उपलब्धता (वाई-  एस, एन - नो) * सी बि एस डाटामा आधारित ** पालिका सर्बेक्षणबाट </v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>#status_of_cm_list_1</v>
+          </cell>
+          <cell r="G82" t="str">
+            <v>!</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>#status_of_cm_list_2</v>
+          </cell>
+          <cell r="G83" t="str">
+            <v>@</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>#other_sectors_panel_title</v>
+          </cell>
+          <cell r="G84" t="str">
+            <v>अन्य क्षेत्र</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>#other_sectors_schools_title</v>
+          </cell>
+          <cell r="G85" t="str">
+            <v>विध्यालयहरू</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>#other_sectors_health_posts_title</v>
+          </cell>
+          <cell r="G86" t="str">
+            <v>स्वास्थ्य चौकी शिर्षक</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>#other_sectors_damaged</v>
+          </cell>
+          <cell r="G87" t="str">
+            <v>क्षतिग्रस्त</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>#other_sectors_under-construction</v>
+          </cell>
+          <cell r="G88" t="str">
+            <v>निर्माणाधीन</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>#other_sectors_const._completed</v>
+          </cell>
+          <cell r="G89" t="str">
+            <v>निर्माण सम्पन्न</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>#key_contacts_panel_title</v>
+          </cell>
+          <cell r="G90" t="str">
+            <v>प्रमुख सम्पर्कहरू</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="G91" t="str">
+            <v>पालिका संयोजक</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>#key_contacts_palika_coordinator_title</v>
+          </cell>
+          <cell r="G92" t="str">
+            <v>पालिका कार्यालय</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>#key_contacts_municipal_office_title</v>
+          </cell>
+          <cell r="G93" t="str">
+            <v>पालिका कार्यालय</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>#key_contacts_gmali/nra_title</v>
+          </cell>
+          <cell r="G94" t="str">
+            <v>जिमाली\एनआरए</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>#key_contacts_dlpiu-building_title</v>
+          </cell>
+          <cell r="G95" t="str">
+            <v>डिएलपिआइयु-भवन</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>#key_contacts_contact</v>
+          </cell>
+          <cell r="G96" t="str">
+            <v>सम्पर्क</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>#land_issues_panel_title</v>
+          </cell>
+          <cell r="G97" t="str">
+            <v>जग्गा सम्बन्धि मुद्दा भएका घरधूरी</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>#land_issues_landless</v>
+          </cell>
+          <cell r="G98" t="str">
+            <v>भूमिहीन</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>#land_issues_no_land_certificates</v>
+          </cell>
+          <cell r="G99" t="str">
+            <v>जग्गाधनी प्रमाण पूजा नभएको</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>#land_issues_right_of_way</v>
+          </cell>
+          <cell r="G100" t="str">
+            <v>बाटोको अधिकार</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>#land_issues_affected_by_hep_</v>
+          </cell>
+          <cell r="G101" t="str">
+            <v>हाईड्रोपावरबाट प्रभावित</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102" t="str">
+            <v>#land_issues_small_plots</v>
+          </cell>
+          <cell r="G102" t="str">
+            <v>सानो टुक्रा जग्गा</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103" t="str">
+            <v>#land_issues_guthi_land</v>
+          </cell>
+          <cell r="G103" t="str">
+            <v>गुठीको जग्गा</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104" t="str">
+            <v>#land_issues_no_information</v>
+          </cell>
+          <cell r="G104" t="str">
+            <v>जानकारी नभएको</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105" t="str">
+            <v>#tech_staff_panel_title</v>
+          </cell>
+          <cell r="G105" t="str">
+            <v>प्राविधिक कर्मचारीको अवस्था</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106" t="str">
+            <v>#tech_staff_staff_title</v>
+          </cell>
+          <cell r="G106" t="str">
+            <v>कर्मचारी</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107" t="str">
+            <v>#tech_staff_available_title</v>
+          </cell>
+          <cell r="G107" t="str">
+            <v>उपलब्ध संख्या</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108" t="str">
+            <v>#tech_staff_addl_req_title</v>
+          </cell>
+          <cell r="G108" t="str">
+            <v>थप आवेदनको संख्या</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109" t="str">
+            <v>#tech_staff_engineers</v>
+          </cell>
+          <cell r="G109" t="str">
+            <v>प्रविधिकहरू</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110" t="str">
+            <v>#tech_staff_sub-engineers</v>
+          </cell>
+          <cell r="G110" t="str">
+            <v>उप-प्राविधिकहरू</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111" t="str">
+            <v>#tech_staff_asst._sub-engineers</v>
+          </cell>
+          <cell r="G111" t="str">
+            <v>सहायक उप-प्राविधिकहरू</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112" t="str">
+            <v>#tech_staff_masons</v>
+          </cell>
+          <cell r="G112" t="str">
+            <v>डकर्मीहरू</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113" t="str">
+            <v>#tech_staff_days</v>
+          </cell>
+          <cell r="G113" t="str">
+            <v>दिन</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114" t="str">
+            <v>#tech_staff_footer</v>
+          </cell>
+          <cell r="G114" t="str">
+            <v>श्रोतः पालिकास्तरीय सर्वेक्षण_x000D__x000D_</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115" t="str">
+            <v>#training_panel_title</v>
+          </cell>
+          <cell r="G115" t="str">
+            <v>तालिमहरू</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116" t="str">
+            <v>#training_sub_title</v>
+          </cell>
+          <cell r="G116" t="str">
+            <v>तालिमहरू (# कूल आवश्यक)</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117" t="str">
+            <v>#training_short_training</v>
+          </cell>
+          <cell r="G117" t="str">
+            <v>छोटो तालिम</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118" t="str">
+            <v>#training_vocational_training</v>
+          </cell>
+          <cell r="G118" t="str">
+            <v>सिपमूलक तालिम</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119" t="str">
+            <v>#training_reached</v>
+          </cell>
+          <cell r="G119" t="str">
+            <v>पुगेको</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120" t="str">
+            <v>#training_remaining</v>
+          </cell>
+          <cell r="G120" t="str">
+            <v>बाँकी</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121" t="str">
+            <v>#training_footer</v>
+          </cell>
+          <cell r="G121" t="str">
+            <v>श्रोतः एचआरआरपिको विश्लेषण</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>#map_panel_title</v>
+          </cell>
+          <cell r="G122" t="str">
+            <v>टिए क्रियाकलापहरूको नक्शांकन</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>#map_footer</v>
+          </cell>
+          <cell r="G123" t="str">
+            <v>प्राविधिक सहायताको गणनाले निम्न मध्ये कुनै एक कुरालाई समेटेको छः नमूना निर्माण;घरदैलो प्राविधिक सहायता;समुदाय/ घरमुली  पुनर्निर्माण अभिमुखीकरण; सहायता डेस्क\प्राविधिक सहायता केन्द्र; डकर्मीका लागि छोटो तालिम; डकर्मीका लागि  सिपमुलक तालिम; वा पुनर्निर्माण समितिको स्थापना</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>#faq_panel_title</v>
+          </cell>
+          <cell r="G124" t="str">
+            <v>बारम्बार सोधिने प्रश्नहरू</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>#faq_q</v>
+          </cell>
+          <cell r="G125" t="str">
+            <v>प्रश्न</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>#faq_a</v>
+          </cell>
+          <cell r="G126" t="str">
+            <v>उत्तर</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2378,7 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CY3" workbookViewId="0">
+    <sheetView topLeftCell="CY3" workbookViewId="0">
       <selection activeCell="DK4" sqref="DK4:DK16"/>
     </sheetView>
   </sheetViews>
@@ -3240,121 +4458,121 @@
         <v>113</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="T3" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="V3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="W3" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="AN3" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="AF3" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AO3" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="AO3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="AT3" s="3" t="s">
         <v>2</v>
@@ -3507,64 +4725,64 @@
         <v>28</v>
       </c>
       <c r="CR3" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="CS3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="CT3" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="CU3" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="CV3" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="CX3" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="CU3" s="3" t="s">
+      <c r="CY3" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="CV3" s="3" t="s">
+      <c r="DA3" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="DE3" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="CW3" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="CY3" s="3" t="s">
+      <c r="DF3" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="DG3" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="DI3" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="CZ3" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="DB3" s="3" t="s">
+      <c r="DJ3" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="DC3" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="DE3" s="3" t="s">
+      <c r="DK3" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="DL3" s="3" t="s">
         <v>32</v>
@@ -3633,34 +4851,34 @@
         <v>46</v>
       </c>
       <c r="EH3" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="EI3" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="EJ3" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="EK3" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="EL3" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="EJ3" s="3" t="s">
+      <c r="EM3" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="EK3" s="3" t="s">
+      <c r="EN3" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="EL3" s="3" t="s">
+      <c r="EO3" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="EM3" s="3" t="s">
+      <c r="EP3" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="EN3" s="3" t="s">
+      <c r="EQ3" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="EO3" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="EP3" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="EQ3" s="3" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:147" x14ac:dyDescent="0.2">
@@ -3871,13 +5089,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI4" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ4" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK4" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL4" s="6"/>
       <c r="DM4" s="6"/>
@@ -4134,13 +5352,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI5" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ5" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK5" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL5" s="6"/>
       <c r="DM5" s="6"/>
@@ -4423,13 +5641,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI6" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ6" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK6" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL6" s="13">
         <v>80</v>
@@ -4694,13 +5912,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI7" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ7" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK7" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL7" s="13">
         <v>63</v>
@@ -4967,13 +6185,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI8" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ8" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK8" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL8" s="6"/>
       <c r="DM8" s="6"/>
@@ -5234,13 +6452,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI9" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ9" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK9" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL9" s="6"/>
       <c r="DM9" s="6"/>
@@ -5509,13 +6727,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI10" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ10" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK10" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL10" s="6"/>
       <c r="DM10" s="6"/>
@@ -5788,13 +7006,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI11" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ11" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK11" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL11" s="6"/>
       <c r="DM11" s="6"/>
@@ -6061,13 +7279,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI12" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ12" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK12" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL12" s="13">
         <v>4</v>
@@ -6354,13 +7572,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI13" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ13" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK13" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL13" s="13">
         <v>105</v>
@@ -6641,13 +7859,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI14" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ14" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK14" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL14" s="6"/>
       <c r="DM14" s="6"/>
@@ -6900,13 +8118,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI15" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ15" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK15" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL15" s="6"/>
       <c r="DM15" s="6"/>
@@ -7155,13 +8373,13 @@
         <v>9851090449</v>
       </c>
       <c r="DI16" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DJ16" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="DK16" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="DL16" s="6"/>
       <c r="DM16" s="6"/>
@@ -7291,11 +8509,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7309,13 +8525,13 @@
     <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>CONCATENATE("#",(LOWER(SUBSTITUTE(A2," ","_"))))</f>
         <v>#code</v>
       </c>
       <c r="B1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C1" t="str">
         <f t="shared" ref="C1:G1" si="0">CONCATENATE("#",(LOWER(SUBSTITUTE(C2," ","_"))))</f>
@@ -7338,33 +8554,33 @@
         <v>#nepali</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F2" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f t="shared" ref="A3:A34" si="1">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D3,"_",E3)," ","_"))))</f>
         <v>#header_title</v>
@@ -7377,38 +8593,46 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>234</v>
+      </c>
+      <c r="G3" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A3,[1]Titles!$A:$A,0))</f>
+        <v>पालिका प्रोफाइल</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f t="shared" si="1"/>
         <v>#header_municipality</v>
       </c>
       <c r="B4" t="str">
-        <f t="shared" ref="B4:B67" si="2">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D4,"_",E4)," ","_"))),"")</f>
+        <f t="shared" ref="B4:B68" si="2">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D4,"_",E4)," ","_"))),"")</f>
         <v>header_municipality</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" t="s">
         <v>235</v>
       </c>
-      <c r="E4" t="s">
-        <v>237</v>
-      </c>
       <c r="F4" s="19" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="G4" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A4,[1]Titles!$A:$A,0))</f>
+        <v>नगरपालिका</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f t="shared" si="1"/>
         <v>#page_1_sources_footer</v>
@@ -7421,16 +8645,20 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="E5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A5,[1]Titles!$A:$A,0))</f>
+        <v>श्रोतहरूः _x000D_१. तथ्यांक २०११ _x000D_२. राष्ट्रिय पुनर्निर्माण प्राधिकरण सिबिएस _x000D_३. एनआरए फाईव डब्ल्यु _x000D_४. एनआरए\मोफाल्ड \एमओयुडि</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f t="shared" si="1"/>
         <v>#page_1_no_info_footer</v>
@@ -7443,19 +8671,23 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>329</v>
+        <v>327</v>
+      </c>
+      <c r="G6" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A6,[1]Titles!$A:$A,0))</f>
+        <v xml:space="preserve">* नोटः "-" भन्नाले यस सम्बन्धमा जानकारी उपलब्ध छैन भन्ने बुझिन्छ </v>
       </c>
       <c r="I6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f t="shared" si="1"/>
         <v>#page_2_futher_information</v>
@@ -7468,16 +8700,29 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="E7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A7,[1]Titles!$A:$A,0))</f>
+        <v>थप जानकारीका लागि</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>503</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="1"/>
         <v>#page_2_info_1</v>
@@ -7490,16 +8735,25 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E8" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>506</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="1"/>
         <v>#page_2_info_2</v>
@@ -7512,16 +8766,29 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>507</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>505</v>
+      </c>
+      <c r="P9" t="str">
+        <f>INDEX(M7:M9,MATCH(O7,L7:L9,1))</f>
+        <v>b</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f t="shared" si="1"/>
         <v>#social_connect</v>
@@ -7534,16 +8801,20 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" t="s">
+        <v>340</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="E10" t="s">
-        <v>342</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A10,[1]Titles!$A:$A,0))</f>
+        <v>हामीलाई सम्पर्क गर्नुहोस्</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f t="shared" si="1"/>
         <v>#social_fb</v>
@@ -7556,16 +8827,20 @@
         <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="G11" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A11,[1]Titles!$A:$A,0))</f>
+        <v>एचआरआरपि नेपाल</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f t="shared" si="1"/>
         <v>#social_twitter</v>
@@ -7578,16 +8853,19 @@
         <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f t="shared" si="1"/>
         <v>#social_pinterest?</v>
@@ -7600,16 +8878,19 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f t="shared" si="1"/>
         <v>#social_flickr</v>
@@ -7622,16 +8903,19 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>#facts_and_figures_panel_title</v>
@@ -7647,13 +8931,17 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>397</v>
+      </c>
+      <c r="G15" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A15,[1]Titles!$A:$A,0))</f>
+        <v>तथ्यहरू र चित्रहरू</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>#facts_and_figures_damage_grade_(1-2)</v>
@@ -7669,10 +8957,14 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>238</v>
+        <v>236</v>
+      </c>
+      <c r="G16" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A16,[1]Titles!$A:$A,0))</f>
+        <v>क्षतिको स्तर (१-२)</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -7691,10 +8983,14 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="G17" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A17,[1]Titles!$A:$A,0))</f>
+        <v>क्षतिको स्तर (३-५)</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -7713,10 +9009,14 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+      <c r="G18" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A18,[1]Titles!$A:$A,0))</f>
+        <v>कूल</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -7735,10 +9035,14 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
+      </c>
+      <c r="G19" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A19,[1]Titles!$A:$A,0))</f>
+        <v>क्षति स्थिति - निजी संरचना</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -7754,13 +9058,17 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="G20" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A20,[1]Titles!$A:$A,0))</f>
+        <v>घरहरूका प्रमुख प्रकार</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -7776,13 +9084,17 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
+      </c>
+      <c r="G21" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A21,[1]Titles!$A:$A,0))</f>
+        <v>प्रकार</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -7798,13 +9110,17 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" t="s">
         <v>241</v>
       </c>
-      <c r="E22" t="s">
-        <v>243</v>
-      </c>
       <c r="F22" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
+      </c>
+      <c r="G22" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A22,[1]Titles!$A:$A,0))</f>
+        <v>पालिका</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -7820,13 +9136,17 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+      <c r="G23" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A23,[1]Titles!$A:$A,0))</f>
+        <v>जिल्ला</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -7842,16 +9162,20 @@
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E24" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>331</v>
+        <v>329</v>
+      </c>
+      <c r="G24" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A24,[1]Titles!$A:$A,0))</f>
+        <v>(जनगणना २०११)१</v>
       </c>
       <c r="I24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -7867,13 +9191,17 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E25" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>409</v>
+        <v>407</v>
+      </c>
+      <c r="G25" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A25,[1]Titles!$A:$A,0))</f>
+        <v>ढुंगा र सिमेन्टको गारो</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -7889,13 +9217,17 @@
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E26" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F26" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
+      </c>
+      <c r="G26" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A26,[1]Titles!$A:$A,0))</f>
+        <v>ढुंगा र माटोको गारो</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -7911,13 +9243,17 @@
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E27" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
+      </c>
+      <c r="G27" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A27,[1]Titles!$A:$A,0))</f>
+        <v>ईट्टा र सिमेन्टको गारो</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -7933,13 +9269,17 @@
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E28" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>412</v>
+        <v>410</v>
+      </c>
+      <c r="G28" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A28,[1]Titles!$A:$A,0))</f>
+        <v>ईट्टा र माटोको गारो</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -7955,13 +9295,17 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>434</v>
+        <v>432</v>
+      </c>
+      <c r="G29" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A29,[1]Titles!$A:$A,0))</f>
+        <v>आरसिसि फ्रेम</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -7977,13 +9321,17 @@
         <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E30" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>413</v>
+        <v>411</v>
+      </c>
+      <c r="G30" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A30,[1]Titles!$A:$A,0))</f>
+        <v>मिश्रित संरचना</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -7999,13 +9347,17 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E31" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>414</v>
+        <v>412</v>
+      </c>
+      <c r="G31" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A31,[1]Titles!$A:$A,0))</f>
+        <v>काठको संरचना</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -8021,16 +9373,20 @@
         <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E32" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>413</v>
+      </c>
+      <c r="G32" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A32,[1]Titles!$A:$A,0))</f>
+        <v>हलो कंक्रिट ब्लकको गारो</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="1"/>
         <v>#typologies_dry_stone_masonry_row_title</v>
@@ -8043,16 +9399,20 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E33" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>414</v>
+      </c>
+      <c r="G33" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A33,[1]Titles!$A:$A,0))</f>
+        <v>ढूंगाको गारो</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="1"/>
         <v>#typologies_adobe_structures_row_title</v>
@@ -8065,18 +9425,22 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>415</v>
+      </c>
+      <c r="G34" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A34,[1]Titles!$A:$A,0))</f>
+        <v>एडोब  संरचना</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
-        <f t="shared" ref="A35:A66" si="3">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D35,"_",E35)," ","_"))))</f>
+        <f t="shared" ref="A35:A67" si="3">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D35,"_",E35)," ","_"))))</f>
         <v>#typologies_bamboo_row_title</v>
       </c>
       <c r="B35" t="str">
@@ -8087,16 +9451,20 @@
         <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>416</v>
+      </c>
+      <c r="G35" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A35,[1]Titles!$A:$A,0))</f>
+        <v>बाँस</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="3"/>
         <v>#typologies_compressed_stabilized_earth_block_(sceb)_masonry_row_title</v>
@@ -8109,16 +9477,20 @@
         <v>34</v>
       </c>
       <c r="D36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="G36" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A36,[1]Titles!$A:$A,0))</f>
+        <v>सिएसइबि ब्लकको गारो</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="3"/>
         <v>#typologies_light_steel_frame_structures_row_title</v>
@@ -8131,1973 +9503,2341 @@
         <v>35</v>
       </c>
       <c r="D37" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>418</v>
+      </c>
+      <c r="G37" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A37,[1]Titles!$A:$A,0))</f>
+        <v>स्टिलको संरचना</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_panel_title</v>
+        <v>#typologies_others</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_panel_title</v>
-      </c>
-      <c r="C38">
-        <v>36</v>
+        <v>typologies_others</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>514</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_reconstruction_status_title</v>
+        <v>#recon_&amp;_retrofit_panel_title</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_reconstruction_status_title</v>
+        <v>recon_&amp;_retrofit_panel_title</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="G39" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A39,[1]Titles!$A:$A,0))</f>
+        <v>आवासीय पुनर्निर्माण तथा प्रबलीकरण सम्बन्धि अध्यावधिक जानकारी</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_retrofitting_status_title</v>
+        <v>#recon_&amp;_retrofit_reconstruction_status_title</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_retrofitting_status_title</v>
+        <v>recon_&amp;_retrofit_reconstruction_status_title</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E40" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="G40" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A40,[1]Titles!$A:$A,0))</f>
+        <v>पुनर्निर्माणको स्थिति</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
+        <v>#recon_&amp;_retrofit_retrofitting_status_title</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
+        <v>recon_&amp;_retrofit_retrofitting_status_title</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
+        <v>243</v>
+      </c>
+      <c r="E41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="E41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A41,[1]Titles!$A:$A,0))</f>
+        <v>प्रबलीकरणको स्थिति</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_pa_agreement_(both)</v>
+        <v>#recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_pa_agreement_(both)</v>
+        <v>recon_&amp;_retrofit_total_eligible_hhs_(both)</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E42" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="G42" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A42,[1]Titles!$A:$A,0))</f>
+        <v>कूल योग्य घरधूरी</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_ist_tranche_received_(both)</v>
+        <v>#recon_&amp;_retrofit_pa_agreement_(both)</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_ist_tranche_received_(both)</v>
+        <v>recon_&amp;_retrofit_pa_agreement_(both)</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E43" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+      <c r="G43" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A43,[1]Titles!$A:$A,0))</f>
+        <v xml:space="preserve">अनुदान सम्झौता </v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_iind_tranche_received_(both)</v>
+        <v>#recon_&amp;_retrofit_ist_tranche_received_(both)</v>
       </c>
       <c r="B44" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_iind_tranche_received_(both)</v>
+        <v>recon_&amp;_retrofit_ist_tranche_received_(both)</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F44" s="19" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+      <c r="G44" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A44,[1]Titles!$A:$A,0))</f>
+        <v>पहिलो किस्ता</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_iiird_tranche_received</v>
+        <v>#recon_&amp;_retrofit_iind_tranche_received_(both)</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_iiird_tranche_received</v>
+        <v>recon_&amp;_retrofit_iind_tranche_received_(both)</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="G45" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A45,[1]Titles!$A:$A,0))</f>
+        <v>दोश्रो किस्ता</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_houses_title</v>
+        <v>#recon_&amp;_retrofit_iiird_tranche_received</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_houses_title</v>
+        <v>recon_&amp;_retrofit_iiird_tranche_received</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E46" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+      <c r="G46" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A46,[1]Titles!$A:$A,0))</f>
+        <v>तेश्रो किस्ता</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_under_construction</v>
+        <v>#recon_&amp;_retrofit_houses_title</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_under_construction</v>
+        <v>recon_&amp;_retrofit_houses_title</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E47" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+      <c r="G47" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A47,[1]Titles!$A:$A,0))</f>
+        <v>घरहरू</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_completed</v>
+        <v>#recon_&amp;_retrofit_under_construction</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_completed</v>
+        <v>recon_&amp;_retrofit_under_construction</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="G48" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A48,[1]Titles!$A:$A,0))</f>
+        <v>निर्माणाधीन</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_grievances_title</v>
+        <v>#recon_&amp;_retrofit_completed</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_grievances_title</v>
+        <v>recon_&amp;_retrofit_completed</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D49" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E49" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>264</v>
+        <v>253</v>
+      </c>
+      <c r="G49" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A49,[1]Titles!$A:$A,0))</f>
+        <v>निर्माण सम्पन्न</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_non-compliances_title</v>
+        <v>#recon_&amp;_retrofit_grievances_title</v>
       </c>
       <c r="B50" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_non-compliances_title</v>
+        <v>recon_&amp;_retrofit_grievances_title</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>473</v>
+        <v>262</v>
+      </c>
+      <c r="G50" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A50,[1]Titles!$A:$A,0))</f>
+        <v>गुनासाहरू</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_registered_(both)</v>
+        <v>#recon_&amp;_retrofit_non-compliances_title</v>
       </c>
       <c r="B51" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_registered_(both)</v>
+        <v>recon_&amp;_retrofit_non-compliances_title</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>268</v>
+        <v>471</v>
+      </c>
+      <c r="G51" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A51,[1]Titles!$A:$A,0))</f>
+        <v>मापदण्ड विपरितको टायल</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f t="shared" si="3"/>
-        <v>#recon_&amp;_retrofit_addressed_(both)</v>
+        <v>#recon_&amp;_retrofit_registered_(both)</v>
       </c>
       <c r="B52" t="str">
         <f t="shared" si="2"/>
-        <v>recon_&amp;_retrofit_addressed_(both)</v>
+        <v>recon_&amp;_retrofit_registered_(both)</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
+      </c>
+      <c r="G52" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A52,[1]Titles!$A:$A,0))</f>
+        <v>दर्ता गरिएका</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f t="shared" si="3"/>
-        <v>#po_presence_pos_presence_title</v>
+        <v>#recon_&amp;_retrofit_addressed_(both)</v>
       </c>
       <c r="B53" t="str">
         <f t="shared" si="2"/>
-        <v>po_presence_pos_presence_title</v>
+        <v>recon_&amp;_retrofit_addressed_(both)</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="E53" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>17</v>
+        <v>267</v>
+      </c>
+      <c r="G53" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A53,[1]Titles!$A:$A,0))</f>
+        <v>सम्बोधन गरिएका</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f t="shared" si="3"/>
-        <v>#po_presence_active</v>
+        <v>#po_presence_pos_presence_title</v>
       </c>
       <c r="B54" t="str">
         <f t="shared" si="2"/>
-        <v>po_presence_active</v>
+        <v>po_presence_pos_presence_title</v>
       </c>
       <c r="C54">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>271</v>
+        <v>17</v>
+      </c>
+      <c r="G54" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A54,[1]Titles!$A:$A,0))</f>
+        <v>साझेदार संस्थाको उपस्थिति</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f t="shared" si="3"/>
-        <v>#po_presence_phased_out</v>
+        <v>#po_presence_active</v>
       </c>
       <c r="B55" t="str">
         <f t="shared" si="2"/>
-        <v>po_presence_phased_out</v>
+        <v>po_presence_active</v>
       </c>
       <c r="C55">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
+      </c>
+      <c r="G55" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A55,[1]Titles!$A:$A,0))</f>
+        <v>क्रियाशील</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_panel_title</v>
+        <v>#po_presence_phased_out</v>
       </c>
       <c r="B56" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_panel_title</v>
+        <v>po_presence_phased_out</v>
       </c>
       <c r="C56">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>17</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>402</v>
+        <v>270</v>
+      </c>
+      <c r="G56" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A56,[1]Titles!$A:$A,0))</f>
+        <v>परियोजना सम्पन्न भएको</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_materials_header</v>
+        <v>#status_of_cm_panel_title</v>
       </c>
       <c r="B57" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_materials_header</v>
+        <v>status_of_cm_panel_title</v>
       </c>
       <c r="C57">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>280</v>
+        <v>400</v>
+      </c>
+      <c r="G57" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A57,[1]Titles!$A:$A,0))</f>
+        <v>निर्माण सामाग्रीको अवस्था</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_unit_header</v>
+        <v>#status_of_cm_materials_header</v>
       </c>
       <c r="B58" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_unit_header</v>
+        <v>status_of_cm_materials_header</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E58" t="s">
         <v>273</v>
       </c>
-      <c r="E58" t="s">
-        <v>276</v>
-      </c>
       <c r="F58" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="G58" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A58,[1]Titles!$A:$A,0))</f>
+        <v>सामाग्री</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_req._quantity*_header</v>
+        <v>#status_of_cm_unit_header</v>
       </c>
       <c r="B59" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_req._quantity*_header</v>
+        <v>status_of_cm_unit_header</v>
       </c>
       <c r="C59">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F59" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="I59" t="s">
-        <v>335</v>
+        <v>279</v>
+      </c>
+      <c r="G59" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A59,[1]Titles!$A:$A,0))</f>
+        <v>ईकाई</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_ava._header</v>
+        <v>#status_of_cm_req._quantity*_header</v>
       </c>
       <c r="B60" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_ava._header</v>
+        <v>status_of_cm_req._quantity*_header</v>
       </c>
       <c r="C60">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F60" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
+      </c>
+      <c r="G60" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A60,[1]Titles!$A:$A,0))</f>
+        <v>आवश्यक मात्रा</v>
+      </c>
+      <c r="I60" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_cost_(nrs.)**_header</v>
+        <v>#status_of_cm_ava._header</v>
       </c>
       <c r="B61" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_cost_(nrs.)**_header</v>
+        <v>status_of_cm_ava._header</v>
       </c>
       <c r="C61">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F61" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="I61" t="s">
-        <v>335</v>
+        <v>281</v>
+      </c>
+      <c r="G61" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A61,[1]Titles!$A:$A,0))</f>
+        <v>उपलब्ध</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_stone</v>
+        <v>#status_of_cm_cost_(nrs.)**_header</v>
       </c>
       <c r="B62" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_stone</v>
+        <v>status_of_cm_cost_(nrs.)**_header</v>
       </c>
       <c r="C62">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
+      </c>
+      <c r="G62" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A62,[1]Titles!$A:$A,0))</f>
+        <v>लागत (नेरू)</v>
+      </c>
+      <c r="I62" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_aggregate</v>
+        <v>#status_of_cm_stone</v>
       </c>
       <c r="B63" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_aggregate</v>
+        <v>status_of_cm_stone</v>
       </c>
       <c r="C63">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E63" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F63" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
+      </c>
+      <c r="G63" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A63,[1]Titles!$A:$A,0))</f>
+        <v>ढुंगा</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_sand</v>
+        <v>#status_of_cm_aggregate</v>
       </c>
       <c r="B64" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_sand</v>
+        <v>status_of_cm_aggregate</v>
       </c>
       <c r="C64">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E64" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
+      </c>
+      <c r="G64" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A64,[1]Titles!$A:$A,0))</f>
+        <v>गिट्टी</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_timber</v>
+        <v>#status_of_cm_sand</v>
       </c>
       <c r="B65" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_timber</v>
+        <v>status_of_cm_sand</v>
       </c>
       <c r="C65">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
+      </c>
+      <c r="G65" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A65,[1]Titles!$A:$A,0))</f>
+        <v>बालुवा</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f t="shared" si="3"/>
-        <v>#status_of_cm_cement_(ppc)</v>
+        <v>#status_of_cm_timber</v>
       </c>
       <c r="B66" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_cement_(ppc)</v>
+        <v>status_of_cm_timber</v>
       </c>
       <c r="C66">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E66" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
+      </c>
+      <c r="G66" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A66,[1]Titles!$A:$A,0))</f>
+        <v>काठ</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
-        <f t="shared" ref="A67:A97" si="4">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D67,"_",E67)," ","_"))))</f>
-        <v>#status_of_cm_cement_(opc)</v>
+        <f t="shared" si="3"/>
+        <v>#status_of_cm_cement_(ppc)</v>
       </c>
       <c r="B67" t="str">
         <f t="shared" si="2"/>
-        <v>status_of_cm_cement_(opc)</v>
+        <v>status_of_cm_cement_(ppc)</v>
       </c>
       <c r="C67">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E67" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
+      </c>
+      <c r="G67" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A67,[1]Titles!$A:$A,0))</f>
+        <v>सिमेन्ट (पिपिसि)</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
-        <f t="shared" si="4"/>
-        <v>#status_of_cm_rebars</v>
+        <f t="shared" ref="A68:A98" si="4">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D68,"_",E68)," ","_"))))</f>
+        <v>#status_of_cm_cement_(opc)</v>
       </c>
       <c r="B68" t="str">
-        <f t="shared" ref="B68:B124" si="5">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D68,"_",E68)," ","_"))),"")</f>
-        <v>status_of_cm_rebars</v>
+        <f t="shared" si="2"/>
+        <v>status_of_cm_cement_(opc)</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E68" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
+      </c>
+      <c r="G68" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A68,[1]Titles!$A:$A,0))</f>
+        <v>सिमेन्ट (ओपिसि)</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_tin</v>
+        <v>#status_of_cm_rebars</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" si="5"/>
-        <v>status_of_cm_tin</v>
+        <f t="shared" ref="B69:B125" si="5">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D69,"_",E69)," ","_"))),"")</f>
+        <v>status_of_cm_rebars</v>
       </c>
       <c r="C69">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E69" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
+      </c>
+      <c r="G69" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A69,[1]Titles!$A:$A,0))</f>
+        <v xml:space="preserve">छड </v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_bricks</v>
+        <v>#status_of_cm_tin</v>
       </c>
       <c r="B70" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_bricks</v>
+        <v>status_of_cm_tin</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
+      </c>
+      <c r="G70" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A70,[1]Titles!$A:$A,0))</f>
+        <v>जस्ता</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_cubic_metre_measurement</v>
+        <v>#status_of_cm_bricks</v>
       </c>
       <c r="B71" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_cubic_metre_measurement</v>
+        <v>status_of_cm_bricks</v>
       </c>
       <c r="C71">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E71" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="I71" t="s">
-        <v>336</v>
+        <v>291</v>
+      </c>
+      <c r="G71" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A71,[1]Titles!$A:$A,0))</f>
+        <v>ईट्टा</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_cubic_feet_measurement</v>
+        <v>#status_of_cm_cubic_metre_measurement</v>
       </c>
       <c r="B72" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_cubic_feet_measurement</v>
+        <v>status_of_cm_cubic_metre_measurement</v>
       </c>
       <c r="C72">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>297</v>
+        <v>293</v>
+      </c>
+      <c r="G72" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A72,[1]Titles!$A:$A,0))</f>
+        <v>मि ३</v>
+      </c>
+      <c r="I72" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_sack_measurement</v>
+        <v>#status_of_cm_cubic_feet_measurement</v>
       </c>
       <c r="B73" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_sack_measurement</v>
+        <v>status_of_cm_cubic_feet_measurement</v>
       </c>
       <c r="C73">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E73" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>299</v>
+        <v>295</v>
+      </c>
+      <c r="G73" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A73,[1]Titles!$A:$A,0))</f>
+        <v>क्युबिक फिट</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_kg_plural_measurement</v>
+        <v>#status_of_cm_sack_measurement</v>
       </c>
       <c r="B74" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_kg_plural_measurement</v>
+        <v>status_of_cm_sack_measurement</v>
       </c>
       <c r="C74">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E74" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>301</v>
+        <v>297</v>
+      </c>
+      <c r="G74" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A74,[1]Titles!$A:$A,0))</f>
+        <v>बोरा</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_bundle_measurement</v>
+        <v>#status_of_cm_kg_plural_measurement</v>
       </c>
       <c r="B75" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_bundle_measurement</v>
+        <v>status_of_cm_kg_plural_measurement</v>
       </c>
       <c r="C75">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="G75" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A75,[1]Titles!$A:$A,0))</f>
+        <v>केजी</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_pieces_measurement</v>
+        <v>#status_of_cm_bundle_measurement</v>
       </c>
       <c r="B76" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_pieces_measurement</v>
+        <v>status_of_cm_bundle_measurement</v>
       </c>
       <c r="C76">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E76" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>305</v>
+        <v>301</v>
+      </c>
+      <c r="G76" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A76,[1]Titles!$A:$A,0))</f>
+        <v>बण्डल</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_types_of_workers</v>
+        <v>#status_of_cm_pieces_measurement</v>
       </c>
       <c r="B77" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_types_of_workers</v>
+        <v>status_of_cm_pieces_measurement</v>
       </c>
       <c r="C77">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="G77" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A77,[1]Titles!$A:$A,0))</f>
+        <v>थान</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_avg._daily_wage_(nrs.)</v>
+        <v>#status_of_cm_types_of_workers</v>
       </c>
       <c r="B78" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_avg._daily_wage_(nrs.)</v>
+        <v>status_of_cm_types_of_workers</v>
       </c>
       <c r="C78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E78" t="s">
-        <v>309</v>
-      </c>
-      <c r="F78" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="F78" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G78" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A78,[1]Titles!$A:$A,0))</f>
+        <v>कामदारको प्रकार</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_skilled_mason</v>
+        <v>#status_of_cm_avg._daily_wage_(nrs.)</v>
       </c>
       <c r="B79" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_skilled_mason</v>
+        <v>status_of_cm_avg._daily_wage_(nrs.)</v>
       </c>
       <c r="C79">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E79" t="s">
-        <v>306</v>
-      </c>
-      <c r="F79" s="19" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="F79" t="s">
+        <v>307</v>
+      </c>
+      <c r="G79" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A79,[1]Titles!$A:$A,0))</f>
+        <v>औसत दैनिक ज्याला (नेरू.) शिर्षक</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_labourer</v>
+        <v>#status_of_cm_skilled_mason</v>
       </c>
       <c r="B80" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_labourer</v>
+        <v>status_of_cm_skilled_mason</v>
       </c>
       <c r="C80">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
+      </c>
+      <c r="G80" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A80,[1]Titles!$A:$A,0))</f>
+        <v>तालिमप्राप्त डकर्मी</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_footer</v>
+        <v>#status_of_cm_labourer</v>
       </c>
       <c r="B81" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_footer</v>
+        <v>status_of_cm_labourer</v>
       </c>
       <c r="C81">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E81" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F81" s="19" t="s">
-        <v>312</v>
-      </c>
-      <c r="H81" t="s">
-        <v>406</v>
+        <v>305</v>
+      </c>
+      <c r="G81" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A81,[1]Titles!$A:$A,0))</f>
+        <v>श्रमिक</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_list_1</v>
+        <v>#status_of_cm_footer</v>
       </c>
       <c r="B82" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_list_1</v>
+        <v>status_of_cm_footer</v>
       </c>
       <c r="C82">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E82" t="s">
-        <v>337</v>
-      </c>
-      <c r="F82" s="21" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>309</v>
+      </c>
+      <c r="F82" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G82" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A82,[1]Titles!$A:$A,0))</f>
+        <v xml:space="preserve">ए भी ए भन्नाले उपलब्धता (वाई-  एस, एन - नो) * सी बि एस डाटामा आधारित ** पालिका सर्बेक्षणबाट </v>
+      </c>
+      <c r="H82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="4"/>
-        <v>#status_of_cm_list_2</v>
+        <v>#status_of_cm_list_1</v>
       </c>
       <c r="B83" t="str">
         <f t="shared" si="5"/>
-        <v>status_of_cm_list_2</v>
+        <v>status_of_cm_list_1</v>
       </c>
       <c r="C83">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E83" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F83" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_panel_title</v>
+        <v>#status_of_cm_list_2</v>
       </c>
       <c r="B84" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_panel_title</v>
+        <v>status_of_cm_list_2</v>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
-      </c>
-      <c r="F84" s="19" t="s">
-        <v>403</v>
+        <v>336</v>
+      </c>
+      <c r="F84" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_schools_title</v>
+        <v>#other_sectors_panel_title</v>
       </c>
       <c r="B85" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_schools_title</v>
+        <v>other_sectors_panel_title</v>
       </c>
       <c r="C85">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D85" t="s">
         <v>25</v>
       </c>
       <c r="E85" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>318</v>
+        <v>401</v>
+      </c>
+      <c r="G85" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A85,[1]Titles!$A:$A,0))</f>
+        <v>अन्य क्षेत्र</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_health_posts_title</v>
+        <v>#other_sectors_schools_title</v>
       </c>
       <c r="B86" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_health_posts_title</v>
+        <v>other_sectors_schools_title</v>
       </c>
       <c r="C86">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D86" t="s">
         <v>25</v>
       </c>
       <c r="E86" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>319</v>
+        <v>316</v>
+      </c>
+      <c r="G86" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A86,[1]Titles!$A:$A,0))</f>
+        <v>विध्यालयहरू</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_damaged</v>
+        <v>#other_sectors_health_posts_title</v>
       </c>
       <c r="B87" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_damaged</v>
+        <v>other_sectors_health_posts_title</v>
       </c>
       <c r="C87">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D87" t="s">
         <v>25</v>
       </c>
       <c r="E87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F87" s="19" t="s">
-        <v>315</v>
+        <v>317</v>
+      </c>
+      <c r="G87" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A87,[1]Titles!$A:$A,0))</f>
+        <v>स्वास्थ्य चौकी शिर्षक</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_under-construction</v>
+        <v>#other_sectors_damaged</v>
       </c>
       <c r="B88" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_under-construction</v>
+        <v>other_sectors_damaged</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" t="s">
         <v>25</v>
       </c>
       <c r="E88" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F88" s="19" t="s">
-        <v>254</v>
+        <v>313</v>
+      </c>
+      <c r="G88" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A88,[1]Titles!$A:$A,0))</f>
+        <v>क्षतिग्रस्त</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="str">
         <f t="shared" si="4"/>
-        <v>#other_sectors_const._completed</v>
+        <v>#other_sectors_under-construction</v>
       </c>
       <c r="B89" t="str">
         <f t="shared" si="5"/>
-        <v>other_sectors_const._completed</v>
+        <v>other_sectors_under-construction</v>
       </c>
       <c r="C89">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
         <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>317</v>
-      </c>
-      <c r="F89" t="s">
-        <v>475</v>
+        <v>314</v>
+      </c>
+      <c r="F89" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="G89" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A89,[1]Titles!$A:$A,0))</f>
+        <v>निर्माणाधीन</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f t="shared" si="4"/>
-        <v>#key_contacts_panel_title</v>
+        <v>#other_sectors_const._completed</v>
       </c>
       <c r="B90" t="str">
         <f t="shared" si="5"/>
-        <v>key_contacts_panel_title</v>
+        <v>other_sectors_const._completed</v>
       </c>
       <c r="C90">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F90" t="s">
-        <v>404</v>
+        <v>473</v>
+      </c>
+      <c r="G90" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A90,[1]Titles!$A:$A,0))</f>
+        <v>निर्माण सम्पन्न</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
-        <f t="shared" ref="A91" si="6">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D91,"_",E91)," ","_"))))</f>
-        <v>#key_contacts_municipal_office_title</v>
+        <f t="shared" si="4"/>
+        <v>#key_contacts_panel_title</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" ref="B91" si="7">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D91,"_",E91)," ","_"))),"")</f>
-        <v>key_contacts_municipal_office_title</v>
+        <f t="shared" si="5"/>
+        <v>key_contacts_panel_title</v>
       </c>
       <c r="C91">
-        <f>C90+1</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D91" t="s">
         <v>30</v>
       </c>
       <c r="E91" t="s">
-        <v>321</v>
+        <v>272</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>402</v>
+      </c>
+      <c r="G91" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A91,[1]Titles!$A:$A,0))</f>
+        <v>प्रमुख सम्पर्कहरू</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
-        <f t="shared" si="4"/>
-        <v>#key_contacts_gmali/nra_title</v>
+        <f t="shared" ref="A92" si="6">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D92,"_",E92)," ","_"))))</f>
+        <v>#key_contacts_municipal_office_title</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="5"/>
-        <v>key_contacts_gmali/nra_title</v>
+        <f t="shared" ref="B92" si="7">CONCATENATE("",(LOWER(SUBSTITUTE(CONCATENATE(D92,"_",E92)," ","_"))),"")</f>
+        <v>key_contacts_municipal_office_title</v>
       </c>
       <c r="C92">
-        <f t="shared" ref="C92:C124" si="8">C91+1</f>
-        <v>90</v>
+        <f>C91+1</f>
+        <v>89</v>
       </c>
       <c r="D92" t="s">
         <v>30</v>
       </c>
       <c r="E92" t="s">
-        <v>322</v>
-      </c>
-      <c r="F92" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
+      </c>
+      <c r="F92" t="s">
+        <v>124</v>
+      </c>
+      <c r="G92" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A92,[1]Titles!$A:$A,0))</f>
+        <v>पालिका कार्यालय</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f t="shared" si="4"/>
-        <v>#key_contacts_dlpiu-building_title</v>
+        <v>#key_contacts_gmali/nra_title</v>
       </c>
       <c r="B93" t="str">
         <f t="shared" si="5"/>
-        <v>key_contacts_dlpiu-building_title</v>
+        <v>key_contacts_gmali/nra_title</v>
       </c>
       <c r="C93">
-        <f t="shared" si="8"/>
-        <v>91</v>
+        <f t="shared" ref="C93:C125" si="8">C92+1</f>
+        <v>90</v>
       </c>
       <c r="D93" t="s">
         <v>30</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>133</v>
+        <v>318</v>
+      </c>
+      <c r="G93" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A93,[1]Titles!$A:$A,0))</f>
+        <v>जिमाली\एनआरए</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f t="shared" si="4"/>
-        <v>#key_contacts_contact</v>
+        <v>#key_contacts_dlpiu-building_title</v>
       </c>
       <c r="B94" t="str">
         <f t="shared" si="5"/>
-        <v>key_contacts_contact</v>
+        <v>key_contacts_dlpiu-building_title</v>
       </c>
       <c r="C94">
         <f t="shared" si="8"/>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D94" t="s">
         <v>30</v>
       </c>
       <c r="E94" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>324</v>
+        <v>133</v>
+      </c>
+      <c r="G94" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A94,[1]Titles!$A:$A,0))</f>
+        <v>डिएलपिआइयु-भवन</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f t="shared" si="4"/>
-        <v>#land_issues_panel_title</v>
+        <v>#key_contacts_contact</v>
       </c>
       <c r="B95" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_panel_title</v>
+        <v>key_contacts_contact</v>
       </c>
       <c r="C95">
         <f t="shared" si="8"/>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>352</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="F95" s="19" t="s">
-        <v>354</v>
+        <v>322</v>
+      </c>
+      <c r="G95" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A95,[1]Titles!$A:$A,0))</f>
+        <v>सम्पर्क</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f t="shared" si="4"/>
-        <v>#land_issues_landless</v>
+        <v>#land_issues_panel_title</v>
       </c>
       <c r="B96" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_landless</v>
+        <v>land_issues_panel_title</v>
       </c>
       <c r="C96">
         <f t="shared" si="8"/>
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D96" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="E96" t="s">
-        <v>355</v>
-      </c>
-      <c r="F96" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A96,[1]Titles!$A:$A,0))</f>
+        <v>जग्गा सम्बन्धि मुद्दा भएका घरधूरी</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="str">
         <f t="shared" si="4"/>
-        <v>#land_issues_no_land_certificates</v>
+        <v>#land_issues_landless</v>
       </c>
       <c r="B97" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_no_land_certificates</v>
+        <v>land_issues_landless</v>
       </c>
       <c r="C97">
         <f t="shared" si="8"/>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D97" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F97" s="19" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="G97" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A97,[1]Titles!$A:$A,0))</f>
+        <v>भूमिहीन</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
-        <f t="shared" ref="A98:A124" si="9">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D98,"_",E98)," ","_"))))</f>
-        <v>#land_issues_right_of_way</v>
+        <f t="shared" si="4"/>
+        <v>#land_issues_no_land_certificates</v>
       </c>
       <c r="B98" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_right_of_way</v>
+        <v>land_issues_no_land_certificates</v>
       </c>
       <c r="C98">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D98" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E98" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F98" s="19" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="G98" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A98,[1]Titles!$A:$A,0))</f>
+        <v>जग्गाधनी प्रमाण पूजा नभएको</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
-        <f t="shared" si="9"/>
-        <v>#land_issues_affected_by_hep_</v>
+        <f t="shared" ref="A99:A125" si="9">CONCATENATE("#",(LOWER(SUBSTITUTE(CONCATENATE(D99,"_",E99)," ","_"))))</f>
+        <v>#land_issues_right_of_way</v>
       </c>
       <c r="B99" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_affected_by_hep_</v>
+        <v>land_issues_right_of_way</v>
       </c>
       <c r="C99">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E99" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F99" s="19" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+      <c r="G99" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A99,[1]Titles!$A:$A,0))</f>
+        <v>बाटोको अधिकार</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f t="shared" si="9"/>
-        <v>#land_issues_small_plots</v>
+        <v>#land_issues_affected_by_hep</v>
       </c>
       <c r="B100" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_small_plots</v>
+        <v>land_issues_affected_by_hep</v>
       </c>
       <c r="C100">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E100" t="s">
-        <v>359</v>
+        <v>508</v>
       </c>
       <c r="F100" s="19" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="G100" t="e">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A100,[1]Titles!$A:$A,0))</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f t="shared" si="9"/>
-        <v>#land_issues_guthi_land</v>
+        <v>#land_issues_small_plots</v>
       </c>
       <c r="B101" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_guthi_land</v>
+        <v>land_issues_small_plots</v>
       </c>
       <c r="C101">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E101" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F101" s="19" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+      <c r="G101" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A101,[1]Titles!$A:$A,0))</f>
+        <v>सानो टुक्रा जग्गा</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f t="shared" si="9"/>
-        <v>#land_issues_no_information</v>
+        <v>#land_issues_guthi_land</v>
       </c>
       <c r="B102" t="str">
         <f t="shared" si="5"/>
-        <v>land_issues_no_information</v>
+        <v>land_issues_guthi_land</v>
       </c>
       <c r="C102">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E102" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+        <v>358</v>
+      </c>
+      <c r="G102" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A102,[1]Titles!$A:$A,0))</f>
+        <v>गुठीको जग्गा</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_panel_title</v>
+        <v>#land_issues_no_information</v>
       </c>
       <c r="B103" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_panel_title</v>
+        <v>land_issues_no_information</v>
       </c>
       <c r="C103">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+      <c r="G103" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A103,[1]Titles!$A:$A,0))</f>
+        <v>जानकारी नभएको</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_staff_title</v>
+        <v>#tech_staff_panel_title</v>
       </c>
       <c r="B104" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_staff_title</v>
+        <v>tech_staff_panel_title</v>
       </c>
       <c r="C104">
         <f t="shared" si="8"/>
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E104" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="F104" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+      <c r="G104" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A104,[1]Titles!$A:$A,0))</f>
+        <v>प्राविधिक कर्मचारीको अवस्था</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_available_title</v>
+        <v>#tech_staff_staff_title</v>
       </c>
       <c r="B105" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_available_title</v>
+        <v>tech_staff_staff_title</v>
       </c>
       <c r="C105">
         <f t="shared" si="8"/>
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D105" t="s">
+        <v>360</v>
+      </c>
+      <c r="E105" t="s">
         <v>362</v>
       </c>
-      <c r="E105" t="s">
-        <v>365</v>
-      </c>
       <c r="F105" s="19" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="G105" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A105,[1]Titles!$A:$A,0))</f>
+        <v>कर्मचारी</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_addl_req_title</v>
+        <v>#tech_staff_available_title</v>
       </c>
       <c r="B106" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_addl_req_title</v>
+        <v>tech_staff_available_title</v>
       </c>
       <c r="C106">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E106" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F106" s="19" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+        <v>372</v>
+      </c>
+      <c r="G106" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A106,[1]Titles!$A:$A,0))</f>
+        <v>उपलब्ध संख्या</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_engineers</v>
+        <v>#tech_staff_addl_req_title</v>
       </c>
       <c r="B107" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_engineers</v>
+        <v>tech_staff_addl_req_title</v>
       </c>
       <c r="C107">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D107" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E107" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F107" s="19" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+        <v>373</v>
+      </c>
+      <c r="G107" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A107,[1]Titles!$A:$A,0))</f>
+        <v>थप आवेदनको संख्या</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_sub-engineers</v>
+        <v>#tech_staff_engineers</v>
       </c>
       <c r="B108" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_sub-engineers</v>
+        <v>tech_staff_engineers</v>
       </c>
       <c r="C108">
         <f t="shared" si="8"/>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D108" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E108" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F108" s="19" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+      <c r="G108" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A108,[1]Titles!$A:$A,0))</f>
+        <v>प्रविधिकहरू</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_asst._sub-engineers</v>
+        <v>#tech_staff_sub-engineers</v>
       </c>
       <c r="B109" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_asst._sub-engineers</v>
+        <v>tech_staff_sub-engineers</v>
       </c>
       <c r="C109">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D109" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E109" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F109" s="19" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="G109" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A109,[1]Titles!$A:$A,0))</f>
+        <v>उप-प्राविधिकहरू</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_masons</v>
+        <v>#tech_staff_asst._sub-engineers</v>
       </c>
       <c r="B110" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_masons</v>
+        <v>tech_staff_asst._sub-engineers</v>
       </c>
       <c r="C110">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E110" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F110" s="19" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+        <v>368</v>
+      </c>
+      <c r="G110" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A110,[1]Titles!$A:$A,0))</f>
+        <v>सहायक उप-प्राविधिकहरू</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_days</v>
+        <v>#tech_staff_masons</v>
       </c>
       <c r="B111" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_days</v>
+        <v>tech_staff_masons</v>
       </c>
       <c r="C111">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D111" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E111" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F111" s="19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+        <v>365</v>
+      </c>
+      <c r="G111" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A111,[1]Titles!$A:$A,0))</f>
+        <v>डकर्मीहरू</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="str">
         <f t="shared" si="9"/>
-        <v>#tech_staff_footer</v>
+        <v>#tech_staff_days</v>
       </c>
       <c r="B112" t="str">
         <f t="shared" si="5"/>
-        <v>tech_staff_footer</v>
+        <v>tech_staff_days</v>
       </c>
       <c r="C112">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D112" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E112" t="s">
-        <v>311</v>
+        <v>369</v>
       </c>
       <c r="F112" s="19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="G112" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A112,[1]Titles!$A:$A,0))</f>
+        <v>दिन</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="str">
         <f t="shared" si="9"/>
-        <v>#training_panel_title</v>
+        <v>#tech_staff_footer</v>
       </c>
       <c r="B113" t="str">
         <f t="shared" si="5"/>
-        <v>training_panel_title</v>
+        <v>tech_staff_footer</v>
       </c>
       <c r="C113">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D113" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E113" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="F113" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+        <v>383</v>
+      </c>
+      <c r="G113" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A113,[1]Titles!$A:$A,0))</f>
+        <v>श्रोतः पालिकास्तरीय सर्वेक्षण_x000D__x000D_</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f t="shared" si="9"/>
-        <v>#training_sub_title</v>
+        <v>#training_panel_title</v>
       </c>
       <c r="B114" t="str">
         <f t="shared" si="5"/>
-        <v>training_sub_title</v>
+        <v>training_panel_title</v>
       </c>
       <c r="C114">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D114" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E114" t="s">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="F114" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+        <v>375</v>
+      </c>
+      <c r="G114" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A114,[1]Titles!$A:$A,0))</f>
+        <v>तालिमहरू</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f t="shared" si="9"/>
-        <v>#training_short_training</v>
+        <v>#training_sub_title</v>
       </c>
       <c r="B115" t="str">
         <f t="shared" si="5"/>
-        <v>training_short_training</v>
+        <v>training_sub_title</v>
       </c>
       <c r="C115">
         <f t="shared" si="8"/>
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D115" t="s">
+        <v>374</v>
+      </c>
+      <c r="E115" t="s">
         <v>376</v>
       </c>
-      <c r="E115" t="s">
-        <v>380</v>
-      </c>
       <c r="F115" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+        <v>377</v>
+      </c>
+      <c r="G115" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A115,[1]Titles!$A:$A,0))</f>
+        <v>तालिमहरू (# कूल आवश्यक)</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f t="shared" si="9"/>
-        <v>#training_vocational_training</v>
+        <v>#training_short_training</v>
       </c>
       <c r="B116" t="str">
         <f t="shared" si="5"/>
-        <v>training_vocational_training</v>
+        <v>training_short_training</v>
       </c>
       <c r="C116">
         <f t="shared" si="8"/>
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D116" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E116" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F116" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+      <c r="G116" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A116,[1]Titles!$A:$A,0))</f>
+        <v>छोटो तालिम</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f t="shared" si="9"/>
+        <v>#training_vocational_training</v>
+      </c>
+      <c r="B117" t="s">
+        <v>509</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="8"/>
+        <v>114</v>
+      </c>
+      <c r="D117" t="s">
+        <v>374</v>
+      </c>
+      <c r="E117" t="s">
+        <v>379</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="G117" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A117,[1]Titles!$A:$A,0))</f>
+        <v>सिपमूलक तालिम</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="str">
+        <f t="shared" si="9"/>
         <v>#training_reached</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B118" t="str">
         <f t="shared" si="5"/>
         <v>training_reached</v>
       </c>
-      <c r="C117">
+      <c r="C118">
         <f t="shared" si="8"/>
         <v>115</v>
       </c>
-      <c r="D117" t="s">
-        <v>376</v>
-      </c>
-      <c r="E117" t="s">
-        <v>382</v>
-      </c>
-      <c r="F117" s="19" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" t="str">
+      <c r="D118" t="s">
+        <v>374</v>
+      </c>
+      <c r="E118" t="s">
+        <v>380</v>
+      </c>
+      <c r="F118" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="G118" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A118,[1]Titles!$A:$A,0))</f>
+        <v>पुगेको</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="str">
         <f t="shared" si="9"/>
         <v>#training_remaining</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B119" t="str">
         <f t="shared" si="5"/>
         <v>training_remaining</v>
       </c>
-      <c r="C118">
+      <c r="C119">
         <f t="shared" si="8"/>
         <v>116</v>
       </c>
-      <c r="D118" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" t="s">
-        <v>383</v>
-      </c>
-      <c r="F118" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" t="str">
+      <c r="D119" t="s">
+        <v>374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>381</v>
+      </c>
+      <c r="F119" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="G119" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A119,[1]Titles!$A:$A,0))</f>
+        <v>बाँकी</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="str">
         <f t="shared" si="9"/>
         <v>#training_footer</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B120" t="str">
         <f t="shared" si="5"/>
         <v>training_footer</v>
       </c>
-      <c r="C119">
+      <c r="C120">
         <f t="shared" si="8"/>
         <v>117</v>
       </c>
-      <c r="D119" t="s">
-        <v>376</v>
-      </c>
-      <c r="E119" t="s">
-        <v>311</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" t="str">
+      <c r="D120" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" t="s">
+        <v>309</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="G120" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A120,[1]Titles!$A:$A,0))</f>
+        <v>श्रोतः एचआरआरपिको विश्लेषण</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="str">
         <f t="shared" si="9"/>
         <v>#map_panel_title</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B121" t="str">
         <f t="shared" si="5"/>
         <v>map_panel_title</v>
       </c>
-      <c r="C120">
+      <c r="C121">
         <f t="shared" si="8"/>
         <v>118</v>
       </c>
-      <c r="D120" t="s">
-        <v>386</v>
-      </c>
-      <c r="E120" t="s">
-        <v>274</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A121" t="str">
+      <c r="D121" t="s">
+        <v>384</v>
+      </c>
+      <c r="E121" t="s">
+        <v>272</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="G121" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A121,[1]Titles!$A:$A,0))</f>
+        <v>टिए क्रियाकलापहरूको नक्शांकन</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A122" t="str">
         <f t="shared" si="9"/>
         <v>#map_footer</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B122" t="str">
         <f t="shared" si="5"/>
         <v>map_footer</v>
       </c>
-      <c r="C121">
+      <c r="C122">
         <f t="shared" si="8"/>
         <v>119</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
+        <v>384</v>
+      </c>
+      <c r="E122" t="s">
+        <v>309</v>
+      </c>
+      <c r="F122" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="E121" t="s">
-        <v>311</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" t="str">
+      <c r="G122" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A122,[1]Titles!$A:$A,0))</f>
+        <v>प्राविधिक सहायताको गणनाले निम्न मध्ये कुनै एक कुरालाई समेटेको छः नमूना निर्माण;घरदैलो प्राविधिक सहायता;समुदाय/ घरमुली  पुनर्निर्माण अभिमुखीकरण; सहायता डेस्क\प्राविधिक सहायता केन्द्र; डकर्मीका लागि छोटो तालिम; डकर्मीका लागि  सिपमुलक तालिम; वा पुनर्निर्माण समितिको स्थापना</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="str">
         <f t="shared" si="9"/>
         <v>#faq_panel_title</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B123" t="str">
         <f t="shared" si="5"/>
         <v>faq_panel_title</v>
       </c>
-      <c r="C122">
+      <c r="C123">
         <f t="shared" si="8"/>
         <v>120</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D123" t="s">
         <v>48</v>
       </c>
-      <c r="E122" t="s">
-        <v>274</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="str">
+      <c r="E123" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="G123" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A123,[1]Titles!$A:$A,0))</f>
+        <v>बारम्बार सोधिने प्रश्नहरू</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="str">
         <f t="shared" si="9"/>
         <v>#faq_q</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B124" t="str">
         <f t="shared" si="5"/>
         <v>faq_q</v>
       </c>
-      <c r="C123">
+      <c r="C124">
         <f t="shared" si="8"/>
         <v>121</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>48</v>
       </c>
-      <c r="E123" t="s">
-        <v>390</v>
-      </c>
-      <c r="F123" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" t="str">
+      <c r="E124" t="s">
+        <v>388</v>
+      </c>
+      <c r="F124" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G124" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A124,[1]Titles!$A:$A,0))</f>
+        <v>प्रश्न</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="str">
         <f t="shared" si="9"/>
         <v>#faq_a</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B125" t="str">
         <f t="shared" si="5"/>
         <v>faq_a</v>
       </c>
-      <c r="C124">
+      <c r="C125">
         <f t="shared" si="8"/>
         <v>122</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>48</v>
       </c>
-      <c r="E124" t="s">
-        <v>391</v>
-      </c>
-      <c r="F124" s="19" t="s">
-        <v>391</v>
+      <c r="E125" t="s">
+        <v>389</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="G125" t="str">
+        <f>INDEX([1]Titles!$G:$G,MATCH(A125,[1]Titles!$A:$A,0))</f>
+        <v>उत्तर</v>
       </c>
     </row>
   </sheetData>
@@ -10901,10 +12641,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10914,10 +12654,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>510</v>
+      </c>
+      <c r="C1" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -10925,9 +12668,11 @@
         <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>511</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -10951,11 +12696,6 @@
       </c>
       <c r="B5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -10981,10 +12721,10 @@
         <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
@@ -3596,8 +3596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ40"/>
   <sheetViews>
-    <sheetView topLeftCell="CY3" workbookViewId="0">
-      <selection activeCell="DK4" sqref="DK4:DK16"/>
+    <sheetView tabSelected="1" topLeftCell="AN3" workbookViewId="0">
+      <selection activeCell="AX4" sqref="AX4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4948,13 +4948,13 @@
         <v>5938</v>
       </c>
       <c r="AV4" s="6">
-        <v>5938</v>
+        <v>7000</v>
       </c>
       <c r="AW4" s="6">
-        <v>2634</v>
+        <v>6700</v>
       </c>
       <c r="AX4" s="6">
-        <v>1866</v>
+        <v>500</v>
       </c>
       <c r="AY4" s="6"/>
       <c r="AZ4" s="6"/>
@@ -12643,7 +12643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="516">
   <si>
     <t>Facts and Figures</t>
   </si>
@@ -1579,6 +1579,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>No Reported Land Issues</t>
   </si>
 </sst>
 </file>
@@ -1658,8 +1661,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2012,7 +2019,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="293">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2157,6 +2164,8 @@
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2301,6 +2310,8 @@
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3596,8 +3607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN3" workbookViewId="0">
-      <selection activeCell="AX4" sqref="AX4"/>
+    <sheetView topLeftCell="DI1" workbookViewId="0">
+      <selection activeCell="DP5" sqref="DP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5097,12 +5108,24 @@
       <c r="DK4" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="DL4" s="6"/>
-      <c r="DM4" s="6"/>
-      <c r="DN4" s="6"/>
-      <c r="DO4" s="6"/>
-      <c r="DP4" s="6"/>
-      <c r="DQ4" s="6"/>
+      <c r="DL4" s="6">
+        <v>50</v>
+      </c>
+      <c r="DM4" s="6">
+        <v>50</v>
+      </c>
+      <c r="DN4" s="6">
+        <v>50</v>
+      </c>
+      <c r="DO4" s="6">
+        <v>5000</v>
+      </c>
+      <c r="DP4" s="6">
+        <v>6000</v>
+      </c>
+      <c r="DQ4" s="6">
+        <v>100</v>
+      </c>
       <c r="DR4" s="6"/>
       <c r="DS4" s="6"/>
       <c r="DT4" s="6"/>
@@ -8511,7 +8534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B103" sqref="B103"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11240,7 +11265,7 @@
         <v>359</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>359</v>
+        <v>515</v>
       </c>
       <c r="G103" t="str">
         <f>INDEX([1]Titles!$G:$G,MATCH(A103,[1]Titles!$A:$A,0))</f>

--- a/resources/data/profile_data_structure_template.xlsx
+++ b/resources/data/profile_data_structure_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Profile Data" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="515">
   <si>
     <t>Facts and Figures</t>
   </si>
@@ -1561,9 +1561,6 @@
   </si>
   <si>
     <t>Affected by HEP</t>
-  </si>
-  <si>
-    <t>reached</t>
   </si>
   <si>
     <t>#value_en</t>
@@ -1661,8 +1658,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="293">
+  <cellStyleXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2019,7 +2020,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="293">
+  <cellStyles count="297">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2166,6 +2167,8 @@
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2312,6 +2315,8 @@
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3607,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ40"/>
   <sheetViews>
-    <sheetView topLeftCell="DI1" workbookViewId="0">
-      <selection activeCell="DP5" sqref="DP5"/>
+    <sheetView tabSelected="1" topLeftCell="DT1" workbookViewId="0">
+      <selection activeCell="ED6" sqref="ED6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5420,8 +5425,7 @@
         <v>306</v>
       </c>
       <c r="ED5" s="11">
-        <f t="shared" ref="ED5:ED16" si="4">EB5-EC5</f>
-        <v>-45</v>
+        <v>45</v>
       </c>
       <c r="EE5" s="11">
         <v>378</v>
@@ -5430,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="EG5" s="11">
-        <f t="shared" ref="EG5:EG16" si="5">EE5-EF5</f>
+        <f t="shared" ref="EG5:EG16" si="4">EE5-EF5</f>
         <v>378</v>
       </c>
       <c r="EH5" s="6"/>
@@ -5705,7 +5709,7 @@
         <v>370</v>
       </c>
       <c r="ED6" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="ED5:ED16" si="5">EB6-EC6</f>
         <v>47</v>
       </c>
       <c r="EE6" s="10">
@@ -5715,7 +5719,7 @@
         <v>8</v>
       </c>
       <c r="EG6" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>591</v>
       </c>
       <c r="EH6" s="6"/>
@@ -5980,7 +5984,7 @@
         <v>100</v>
       </c>
       <c r="ED7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>296</v>
       </c>
       <c r="EE7" s="10">
@@ -5990,7 +5994,7 @@
         <v>6</v>
       </c>
       <c r="EG7" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>525</v>
       </c>
       <c r="EH7" s="6"/>
@@ -6239,7 +6243,7 @@
         <v>70</v>
       </c>
       <c r="ED8" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>287</v>
       </c>
       <c r="EE8" s="10">
@@ -6249,7 +6253,7 @@
         <v>90</v>
       </c>
       <c r="EG8" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>431</v>
       </c>
       <c r="EH8" s="6"/>
@@ -6506,7 +6510,7 @@
         <v>170</v>
       </c>
       <c r="ED9" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="EE9" s="10">
@@ -6516,7 +6520,7 @@
         <v>24</v>
       </c>
       <c r="EG9" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>228</v>
       </c>
       <c r="EH9" s="6"/>
@@ -6803,7 +6807,7 @@
         <v>36</v>
       </c>
       <c r="ED10" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>144</v>
       </c>
       <c r="EE10" s="10">
@@ -6813,7 +6817,7 @@
         <v>190</v>
       </c>
       <c r="EG10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="EH10" s="6"/>
@@ -7060,7 +7064,7 @@
         <v>402</v>
       </c>
       <c r="ED11" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>207</v>
       </c>
       <c r="EE11" s="10">
@@ -7070,7 +7074,7 @@
         <v>84</v>
       </c>
       <c r="EG11" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>802</v>
       </c>
       <c r="EH11" s="6"/>
@@ -7347,8 +7351,7 @@
         <v>674</v>
       </c>
       <c r="ED12" s="11">
-        <f t="shared" si="4"/>
-        <v>-203</v>
+        <v>203</v>
       </c>
       <c r="EE12" s="10">
         <v>666</v>
@@ -7357,7 +7360,7 @@
         <v>20</v>
       </c>
       <c r="EG12" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>646</v>
       </c>
       <c r="EH12" s="6"/>
@@ -7654,7 +7657,7 @@
         <v>460</v>
       </c>
       <c r="ED13" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="EE13" s="10">
@@ -7664,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="EG13" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>759</v>
       </c>
       <c r="EH13" s="6"/>
@@ -7921,7 +7924,7 @@
         <v>450</v>
       </c>
       <c r="ED14" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>176</v>
       </c>
       <c r="EE14" s="10">
@@ -7931,7 +7934,7 @@
         <v>28</v>
       </c>
       <c r="EG14" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>855</v>
       </c>
       <c r="EH14" s="6"/>
@@ -8172,7 +8175,7 @@
         <v>518</v>
       </c>
       <c r="ED15" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-122</v>
       </c>
       <c r="EE15" s="10">
@@ -8182,7 +8185,7 @@
         <v>38</v>
       </c>
       <c r="EG15" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="EH15" s="6"/>
@@ -8435,7 +8438,7 @@
         <v>157</v>
       </c>
       <c r="ED16" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="EE16" s="10">
@@ -8445,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="EG16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="EH16" s="6"/>
@@ -8534,8 +8537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B103" sqref="B103"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9554,10 +9557,10 @@
         <v>239</v>
       </c>
       <c r="E38" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F38" s="19" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -11265,7 +11268,7 @@
         <v>359</v>
       </c>
       <c r="F103" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G103" t="str">
         <f>INDEX([1]Titles!$G:$G,MATCH(A103,[1]Titles!$A:$A,0))</f>
@@ -11628,8 +11631,9 @@
         <f t="shared" si="9"/>
         <v>#training_vocational_training</v>
       </c>
-      <c r="B117" t="s">
-        <v>509</v>
+      <c r="B117" t="str">
+        <f t="shared" si="5"/>
+        <v>training_vocational_training</v>
       </c>
       <c r="C117">
         <f t="shared" si="8"/>
@@ -12682,10 +12686,10 @@
         <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -12693,10 +12697,10 @@
         <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>511</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
